--- a/DATA_VENTA_25.2.xlsx
+++ b/DATA_VENTA_25.2.xlsx
@@ -493,8 +493,8 @@
         <v>BOLETA PROYECTADA</v>
       </c>
       <c r="BC1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RINDIÓ EXAMEN")</f>
-        <v>RINDIÓ EXAMEN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RINDIÓ PAU")</f>
+        <v>RINDIÓ PAU</v>
       </c>
       <c r="BD1" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CURSO A NIVELAR")</f>
@@ -509,12 +509,12 @@
         <v>CONFIRMADO INICIA UCAL</v>
       </c>
       <c r="BG1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FECHA PROGRAMACIÓN")</f>
-        <v>FECHA PROGRAMACIÓN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FECHA PROGRAMACIÓN PAU")</f>
+        <v>FECHA PROGRAMACIÓN PAU</v>
       </c>
       <c r="BH1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FECHA RINDIÓ")</f>
-        <v>FECHA RINDIÓ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FECHA RINDIÓ PAU")</f>
+        <v>FECHA RINDIÓ PAU</v>
       </c>
       <c r="BI1" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CONVA CONFIRMADA")</f>
@@ -2815,8 +2815,8 @@
         <v>1050</v>
       </c>
       <c r="AG11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="AH11" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -3779,12 +3779,12 @@
         <v>700</v>
       </c>
       <c r="AG15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="AH15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="AI15" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5432,10 +5432,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -5667,10 +5664,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -6149,10 +6143,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),125.0)</f>
@@ -6387,10 +6378,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -6628,10 +6616,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
@@ -6869,10 +6854,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
@@ -7116,10 +7098,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),200.0)</f>
@@ -7363,10 +7342,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
@@ -7607,10 +7583,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -7848,10 +7821,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
@@ -8095,10 +8065,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
@@ -8342,10 +8309,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
@@ -8452,8 +8416,8 @@
         <v>950</v>
       </c>
       <c r="BC34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BD34" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
@@ -8468,10 +8432,13 @@
         <v>1</v>
       </c>
       <c r="BG34" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45794.0)</f>
-        <v>45794</v>
-      </c>
-      <c r="BH34" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45820.0)</f>
+        <v>45820</v>
+      </c>
+      <c r="BH34" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"12/06/2025")</f>
+        <v>12/06/2025</v>
+      </c>
       <c r="BI34" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
@@ -8586,10 +8553,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -8833,10 +8797,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -8995,8 +8956,8 @@
         <v>71364360</v>
       </c>
       <c r="G37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.99400675E8)</f>
-        <v>999400675</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.69220527E8)</f>
+        <v>969220527</v>
       </c>
       <c r="H37" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jhumy132@gmail.com")</f>
@@ -9074,10 +9035,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -9321,10 +9279,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -9562,10 +9517,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
@@ -9809,10 +9761,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -10056,10 +10005,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
@@ -10303,10 +10249,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -10550,10 +10493,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -10791,10 +10731,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -11032,10 +10969,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -11142,8 +11076,8 @@
         <v>950</v>
       </c>
       <c r="BC45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BD45" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
@@ -11158,10 +11092,13 @@
         <v>1</v>
       </c>
       <c r="BG45" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45794.0)</f>
-        <v>45794</v>
-      </c>
-      <c r="BH45" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45820.0)</f>
+        <v>45820</v>
+      </c>
+      <c r="BH45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"12/06/2025")</f>
+        <v>12/06/2025</v>
+      </c>
       <c r="BI45" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
@@ -11197,8 +11134,8 @@
         <v>61148599</v>
       </c>
       <c r="G46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.58038861E8)</f>
-        <v>958038861</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.67458224E8)</f>
+        <v>967458224</v>
       </c>
       <c r="H46" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"josiasespino86@gmail.com")</f>
@@ -11276,10 +11213,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
@@ -11523,10 +11457,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
@@ -11767,10 +11698,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -12002,10 +11930,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -12147,32 +12072,32 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5019828.0)</f>
-        <v>5019828</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5183596.0)</f>
+        <v>5183596</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000424908")</f>
-        <v>0000424908</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425001")</f>
+        <v>0000425001</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISRAEL SEBASTIÁN")</f>
-        <v>ISRAEL SEBASTIÁN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOHANA YAMILLE")</f>
+        <v>JOHANA YAMILLE</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VASALLO TORRES")</f>
-        <v>VASALLO TORRES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OLLERO VIDALON")</f>
+        <v>OLLERO VIDALON</v>
       </c>
       <c r="F50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.4744002E7)</f>
-        <v>74744002</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3388134E7)</f>
+        <v>73388134</v>
       </c>
       <c r="G50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.36171682E8)</f>
-        <v>936171682</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.82876029E8)</f>
+        <v>982876029</v>
       </c>
       <c r="H50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Torressebastian304@gmail.com")</f>
-        <v>Torressebastian304@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"yamilleollerovidalon@gmail.com")</f>
+        <v>yamilleollerovidalon@gmail.com</v>
       </c>
       <c r="I50" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura")</f>
@@ -12187,8 +12112,8 @@
         <v>Antigua</v>
       </c>
       <c r="L50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
-        <v>Admisión Extraordinaria (Traslados)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
+        <v>Admisión Ordinaria</v>
       </c>
       <c r="M50" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
@@ -12199,70 +12124,70 @@
         <v>Diurno</v>
       </c>
       <c r="O50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
-        <v>TRASLADO CON CONVA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
       </c>
       <c r="P50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECA")</f>
-        <v>RECA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
+        <v>BECA</v>
       </c>
       <c r="Q50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECATEGORIZACIÓN")</f>
-        <v>RECATEGORIZACIÓN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE")</f>
+        <v>BECA CARRERAS CORE</v>
       </c>
       <c r="R50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Visita Guiada")</f>
-        <v>Visita Guiada</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
       </c>
       <c r="S50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
+        <v>FABIOLA</v>
       </c>
       <c r="T50" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45780.0)</f>
-        <v>45780</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45784.0)</f>
+        <v>45784</v>
       </c>
       <c r="U50" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
         <v>CARGO</v>
       </c>
       <c r="V50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
       </c>
       <c r="W50" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
-        <v>350</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="X50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"31/05/2025")</f>
-        <v>31/05/2025</v>
-      </c>
-      <c r="Y50" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Y50" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45784.0)</f>
+        <v>45784</v>
+      </c>
       <c r="Z50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
-      </c>
-      <c r="AA50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
+      <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
       </c>
       <c r="AD50" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
       </c>
       <c r="AE50" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
       </c>
       <c r="AF50" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
+        <v>1250</v>
       </c>
       <c r="AG50" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -12277,24 +12202,24 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1435809.0)</f>
-        <v>1435809</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449553.0)</f>
+        <v>449553</v>
       </c>
       <c r="AK50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
-        <v>Más de 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
+        <v>10 kms a 15 kms</v>
       </c>
       <c r="AL50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"04 200 a 300")</f>
-        <v>04 200 a 300</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"06 551 a 800")</f>
+        <v>06 551 a 800</v>
       </c>
       <c r="AM50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Escuela Superior Sencico")</f>
-        <v>Escuela Superior Sencico</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="AN50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
-        <v> </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
       </c>
       <c r="AO50" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2021.0)</f>
@@ -12309,20 +12234,20 @@
         <v>45775</v>
       </c>
       <c r="AR50" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45761.0)</f>
-        <v>45761</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45782.0)</f>
+        <v>45782</v>
       </c>
       <c r="AS50" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
-        <v>45748</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
+        <v>45778</v>
       </c>
       <c r="AT50" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
-        <v>45747</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
+        <v>45775</v>
       </c>
       <c r="AU50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
-        <v>19</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
       <c r="AV50" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
@@ -12333,42 +12258,48 @@
         <v>BIDIRECCIONAL</v>
       </c>
       <c r="AX50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO SUFICIENCIA")</f>
-        <v>NO SUFICIENCIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
+        <v>ORGANICO</v>
       </c>
       <c r="AY50" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cinthia Mariella Orosco")</f>
-        <v>Cinthia Mariella Orosco</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Juan Manuel Rodríguez")</f>
+        <v>Juan Manuel Rodríguez</v>
       </c>
       <c r="BA50" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.5333333333333333)</f>
-        <v>0.5333333333</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BB50" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),830.0)</f>
-        <v>830</v>
-      </c>
-      <c r="BC50" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
+        <v>1250</v>
+      </c>
+      <c r="BC50" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
       <c r="BD50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redaccion")</f>
+        <v>Redaccion</v>
       </c>
       <c r="BE50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG50" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG50" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45794.0)</f>
+        <v>45794</v>
+      </c>
       <c r="BH50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No aplica")</f>
-        <v>No aplica</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"17/05/2025")</f>
+        <v>17/05/2025</v>
       </c>
       <c r="BI50" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -12385,40 +12316,40 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5183596.0)</f>
-        <v>5183596</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1335936.0)</f>
+        <v>1335936</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425001")</f>
-        <v>0000425001</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425190")</f>
+        <v>0000425190</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOHANA YAMILLE")</f>
-        <v>JOHANA YAMILLE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JIMENA GIANINA ")</f>
+        <v>JIMENA GIANINA </v>
       </c>
       <c r="E51" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OLLERO VIDALON")</f>
-        <v>OLLERO VIDALON</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SALAZAR MEDINA")</f>
+        <v>SALAZAR MEDINA</v>
       </c>
       <c r="F51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3388134E7)</f>
-        <v>73388134</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3258118E7)</f>
+        <v>73258118</v>
       </c>
       <c r="G51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.82876029E8)</f>
-        <v>982876029</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.18522276E8)</f>
+        <v>918522276</v>
       </c>
       <c r="H51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"yamilleollerovidalon@gmail.com")</f>
-        <v>yamilleollerovidalon@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"gianinasalazar1021@gmail.com")</f>
+        <v>gianinasalazar1021@gmail.com</v>
       </c>
       <c r="I51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura")</f>
-        <v>Arquitectura</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación")</f>
+        <v>Comunicación</v>
       </c>
       <c r="J51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
-        <v>Arquitecturas</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
+        <v>Comunicaciones</v>
       </c>
       <c r="K51" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
@@ -12441,20 +12372,20 @@
         <v>NUEVO</v>
       </c>
       <c r="P51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
-        <v>BECA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
       </c>
       <c r="Q51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE")</f>
-        <v>BECA CARRERAS CORE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
       </c>
       <c r="R51" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
         <v>NINGUNO</v>
       </c>
       <c r="S51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
-        <v>FABIOLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
+        <v>RODRIGO</v>
       </c>
       <c r="T51" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45784.0)</f>
@@ -12484,10 +12415,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
@@ -12498,12 +12426,12 @@
         <v>95</v>
       </c>
       <c r="AE51" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
-        <v>1500</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
+        <v>1200</v>
       </c>
       <c r="AF51" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
-        <v>1250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
+        <v>1200</v>
       </c>
       <c r="AG51" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -12518,16 +12446,16 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449553.0)</f>
-        <v>449553</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),692459.0)</f>
+        <v>692459</v>
       </c>
       <c r="AK51" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
         <v>10 kms a 15 kms</v>
       </c>
       <c r="AL51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"06 551 a 800")</f>
-        <v>06 551 a 800</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
+        <v>01 Nacional</v>
       </c>
       <c r="AM51" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
@@ -12550,8 +12478,8 @@
         <v>45775</v>
       </c>
       <c r="AR51" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45782.0)</f>
-        <v>45782</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45783.0)</f>
+        <v>45783</v>
       </c>
       <c r="AS51" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -12562,44 +12490,44 @@
         <v>45775</v>
       </c>
       <c r="AU51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="AV51" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
         <v>DIGITAL</v>
       </c>
       <c r="AW51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
-        <v>BIDIRECCIONAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FORMULARIO")</f>
+        <v>FORMULARIO</v>
       </c>
       <c r="AX51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
-        <v>ORGANICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEARCH MARCA")</f>
+        <v>SEARCH MARCA</v>
       </c>
       <c r="AY51" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Juan Manuel Rodríguez")</f>
-        <v>Juan Manuel Rodríguez</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Andrea Araujo Antara")</f>
+        <v>Andrea Araujo Antara</v>
       </c>
       <c r="BA51" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB51" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
-        <v>1250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
+        <v>1200</v>
       </c>
       <c r="BC51" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BD51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redaccion")</f>
-        <v>Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redaccion")</f>
+        <v>Matemáticas y Redaccion</v>
       </c>
       <c r="BE51" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -12632,36 +12560,36 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1335936.0)</f>
-        <v>1335936</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2515625.0)</f>
+        <v>2515625</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425190")</f>
-        <v>0000425190</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000067119")</f>
+        <v>0000067119</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JIMENA GIANINA ")</f>
-        <v>JIMENA GIANINA </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOAQUIN")</f>
+        <v>JOAQUIN</v>
       </c>
       <c r="E52" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SALAZAR MEDINA")</f>
-        <v>SALAZAR MEDINA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MANYARI POMA")</f>
+        <v>MANYARI POMA</v>
       </c>
       <c r="F52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3258118E7)</f>
-        <v>73258118</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1060957E7)</f>
+        <v>61060957</v>
       </c>
       <c r="G52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.18522276E8)</f>
-        <v>918522276</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.22184694E8)</f>
+        <v>922184694</v>
       </c>
       <c r="H52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"gianinasalazar1021@gmail.com")</f>
-        <v>gianinasalazar1021@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jmanyarid001@gmail.com")</f>
+        <v>jmanyarid001@gmail.com</v>
       </c>
       <c r="I52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación")</f>
-        <v>Comunicación</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
+        <v>Comunicación Audiovisual y Cine</v>
       </c>
       <c r="J52" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
@@ -12672,8 +12600,8 @@
         <v>Antigua</v>
       </c>
       <c r="L52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
-        <v>Admisión Ordinaria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
+        <v>Admisión de Alto Rendimiento</v>
       </c>
       <c r="M52" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
@@ -12696,61 +12624,58 @@
         <v>NINGUNO</v>
       </c>
       <c r="R52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
-        <v>NINGUNO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Visita Guiada")</f>
+        <v>Visita Guiada</v>
       </c>
       <c r="S52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
-        <v>RODRIGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="T52" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45784.0)</f>
-        <v>45784</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45785.0)</f>
+        <v>45785</v>
       </c>
       <c r="U52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
-        <v>CARGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"POS")</f>
+        <v>POS</v>
       </c>
       <c r="V52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
-        <v>PAGO COMPLETO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
       </c>
       <c r="W52" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
       <c r="X52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"31/05/2025")</f>
+        <v>31/05/2025</v>
       </c>
       <c r="Y52" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45784.0)</f>
-        <v>45784</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45808.0)</f>
+        <v>45808</v>
       </c>
       <c r="Z52" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="AD52" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
         <v>95</v>
       </c>
       <c r="AE52" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
-        <v>1200</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
       </c>
       <c r="AF52" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
-        <v>1200</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
       </c>
       <c r="AG52" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -12765,17 +12690,11 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),692459.0)</f>
-        <v>692459</v>
-      </c>
-      <c r="AK52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
-        <v>10 kms a 15 kms</v>
-      </c>
-      <c r="AL52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
-        <v>01 Nacional</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),764613.0)</f>
+        <v>764613</v>
+      </c>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
       <c r="AM52" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -12785,8 +12704,8 @@
         <v> -</v>
       </c>
       <c r="AO52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2021.0)</f>
-        <v>2021</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
+        <v>2024</v>
       </c>
       <c r="AP52" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -12809,8 +12728,8 @@
         <v>45775</v>
       </c>
       <c r="AU52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
+        <v>25</v>
       </c>
       <c r="AV52" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
@@ -12821,24 +12740,24 @@
         <v>FORMULARIO</v>
       </c>
       <c r="AX52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEARCH MARCA")</f>
-        <v>SEARCH MARCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
+        <v>ORGANICO</v>
       </c>
       <c r="AY52" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Andrea Araujo Antara")</f>
-        <v>Andrea Araujo Antara</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Angelica Iparraguirre")</f>
+        <v>Angelica Iparraguirre</v>
       </c>
       <c r="BA52" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB52" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
-        <v>1200</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1480.0)</f>
+        <v>1480</v>
       </c>
       <c r="BC52" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -12853,8 +12772,8 @@
         <v>1</v>
       </c>
       <c r="BF52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="BG52" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45794.0)</f>
@@ -12879,56 +12798,56 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2515625.0)</f>
-        <v>2515625</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2390907.0)</f>
+        <v>2390907</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000067119")</f>
-        <v>0000067119</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425277")</f>
+        <v>0000425277</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOAQUIN")</f>
-        <v>JOAQUIN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TREISIS DANIELA")</f>
+        <v>TREISIS DANIELA</v>
       </c>
       <c r="E53" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MANYARI POMA")</f>
-        <v>MANYARI POMA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SAJAMI VEGA")</f>
+        <v>SAJAMI VEGA</v>
       </c>
       <c r="F53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1060957E7)</f>
-        <v>61060957</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.7506321E7)</f>
+        <v>47506321</v>
       </c>
       <c r="G53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.22184694E8)</f>
-        <v>922184694</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.21853487E8)</f>
+        <v>921853487</v>
       </c>
       <c r="H53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jmanyarid001@gmail.com")</f>
-        <v>jmanyarid001@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tsajamivega@gmail.com")</f>
+        <v>tsajamivega@gmail.com</v>
       </c>
       <c r="I53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
-        <v>Comunicación Audiovisual y Cine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Marketing")</f>
+        <v>Administración y Marketing</v>
       </c>
       <c r="J53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
-        <v>Comunicaciones</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Negocios")</f>
+        <v>Negocios</v>
       </c>
       <c r="K53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
-        <v>Antigua</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
+        <v>Nueva</v>
       </c>
       <c r="L53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
-        <v>Admisión de Alto Rendimiento</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
+        <v>Admisión Ordinaria</v>
       </c>
       <c r="M53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
-        <v>Semi-presencial</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Virtual")</f>
+        <v>Virtual</v>
       </c>
       <c r="N53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
-        <v>Diurno</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nocturno - A distancia")</f>
+        <v>Nocturno - A distancia</v>
       </c>
       <c r="O53" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
@@ -12943,8 +12862,8 @@
         <v>NINGUNO</v>
       </c>
       <c r="R53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Visita Guiada")</f>
-        <v>Visita Guiada</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
       </c>
       <c r="S53" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
@@ -12955,49 +12874,46 @@
         <v>45785</v>
       </c>
       <c r="U53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"POS")</f>
-        <v>POS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
+        <v>CARGO</v>
       </c>
       <c r="V53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
       </c>
       <c r="W53" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
       <c r="X53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"31/05/2025")</f>
-        <v>31/05/2025</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="Y53" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45808.0)</f>
-        <v>45808</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45785.0)</f>
+        <v>45785</v>
       </c>
       <c r="Z53" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AD53" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
-        <v>95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AE53" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
-        <v>1500</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
+        <v>750</v>
       </c>
       <c r="AF53" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
-        <v>1500</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
+        <v>750</v>
       </c>
       <c r="AG53" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -13012,11 +12928,17 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),764613.0)</f>
-        <v>764613</v>
-      </c>
-      <c r="AK53" s="1"/>
-      <c r="AL53" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1220524.0)</f>
+        <v>1220524</v>
+      </c>
+      <c r="AK53" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
+        <v>Más de 15 kms</v>
+      </c>
+      <c r="AL53" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"03 101 a 200")</f>
+        <v>03 101 a 200</v>
+      </c>
       <c r="AM53" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -13026,8 +12948,8 @@
         <v> -</v>
       </c>
       <c r="AO53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
-        <v>2024</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2007.0)</f>
+        <v>2007</v>
       </c>
       <c r="AP53" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -13038,8 +12960,8 @@
         <v>45775</v>
       </c>
       <c r="AR53" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45783.0)</f>
-        <v>45783</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45785.0)</f>
+        <v>45785</v>
       </c>
       <c r="AS53" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -13050,8 +12972,8 @@
         <v>45775</v>
       </c>
       <c r="AU53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
-        <v>25</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AV53" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
@@ -13062,32 +12984,32 @@
         <v>FORMULARIO</v>
       </c>
       <c r="AX53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
-        <v>ORGANICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEARCH CARRERA")</f>
+        <v>SEARCH CARRERA</v>
       </c>
       <c r="AY53" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Angelica Iparraguirre")</f>
-        <v>Angelica Iparraguirre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Juan Manuel Rodríguez")</f>
+        <v>Juan Manuel Rodríguez</v>
       </c>
       <c r="BA53" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB53" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1480.0)</f>
-        <v>1480</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
+        <v>750</v>
       </c>
       <c r="BC53" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BD53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redaccion")</f>
-        <v>Matemáticas y Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
       </c>
       <c r="BE53" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -13102,8 +13024,8 @@
         <v>45794</v>
       </c>
       <c r="BH53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"17/05/2025")</f>
-        <v>17/05/2025</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"07/06/2025")</f>
+        <v>07/06/2025</v>
       </c>
       <c r="BI53" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -13120,32 +13042,32 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2390907.0)</f>
-        <v>2390907</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5171432.0)</f>
+        <v>5171432</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425277")</f>
-        <v>0000425277</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425051")</f>
+        <v>0000425051</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TREISIS DANIELA")</f>
-        <v>TREISIS DANIELA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IRVING GABRIELA")</f>
+        <v>IRVING GABRIELA</v>
       </c>
       <c r="E54" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SAJAMI VEGA")</f>
-        <v>SAJAMI VEGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA TELLO")</f>
+        <v>CABRERA TELLO</v>
       </c>
       <c r="F54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.7506321E7)</f>
-        <v>47506321</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.4608363E7)</f>
+        <v>74608363</v>
       </c>
       <c r="G54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.21853487E8)</f>
-        <v>921853487</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.52026472E8)</f>
+        <v>952026472</v>
       </c>
       <c r="H54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tsajamivega@gmail.com")</f>
-        <v>tsajamivega@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"gabrielac.t120708@gmail.com")</f>
+        <v>gabrielac.t120708@gmail.com</v>
       </c>
       <c r="I54" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Marketing")</f>
@@ -13219,10 +13141,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -13253,16 +13172,16 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1220524.0)</f>
-        <v>1220524</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1755453.0)</f>
+        <v>1755453</v>
       </c>
       <c r="AK54" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
         <v>Más de 15 kms</v>
       </c>
       <c r="AL54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"03 101 a 200")</f>
-        <v>03 101 a 200</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
+        <v>01 Nacional</v>
       </c>
       <c r="AM54" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
@@ -13273,8 +13192,8 @@
         <v> -</v>
       </c>
       <c r="AO54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2007.0)</f>
-        <v>2007</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2020.0)</f>
+        <v>2020</v>
       </c>
       <c r="AP54" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -13285,20 +13204,20 @@
         <v>45775</v>
       </c>
       <c r="AR54" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45785.0)</f>
-        <v>45785</v>
-      </c>
-      <c r="AS54" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
-        <v>45778</v>
-      </c>
-      <c r="AT54" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
         <v>45775</v>
       </c>
+      <c r="AS54" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
+        <v>45748</v>
+      </c>
+      <c r="AT54" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
+        <v>45747</v>
+      </c>
       <c r="AU54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
+        <v>10</v>
       </c>
       <c r="AV54" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
@@ -13309,8 +13228,8 @@
         <v>FORMULARIO</v>
       </c>
       <c r="AX54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEARCH CARRERA")</f>
-        <v>SEARCH CARRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
+        <v>ORGANICO</v>
       </c>
       <c r="AY54" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -13333,8 +13252,8 @@
         <v>1</v>
       </c>
       <c r="BD54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redaccion")</f>
+        <v>Redaccion</v>
       </c>
       <c r="BE54" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -13349,8 +13268,8 @@
         <v>45794</v>
       </c>
       <c r="BH54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"07/06/2025")</f>
-        <v>07/06/2025</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"17/05/2025")</f>
+        <v>17/05/2025</v>
       </c>
       <c r="BI54" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -13367,60 +13286,60 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5171432.0)</f>
-        <v>5171432</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5106688.0)</f>
+        <v>5106688</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425051")</f>
-        <v>0000425051</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425303")</f>
+        <v>0000425303</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IRVING GABRIELA")</f>
-        <v>IRVING GABRIELA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERNANDA GUADALUPE ")</f>
+        <v>FERNANDA GUADALUPE </v>
       </c>
       <c r="E55" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA TELLO")</f>
-        <v>CABRERA TELLO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CHICATA GOMEZ")</f>
+        <v>CHICATA GOMEZ</v>
       </c>
       <c r="F55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.4608363E7)</f>
-        <v>74608363</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0059258E7)</f>
+        <v>60059258</v>
       </c>
       <c r="G55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.52026472E8)</f>
-        <v>952026472</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.54091542E8)</f>
+        <v>954091542</v>
       </c>
       <c r="H55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"gabrielac.t120708@gmail.com")</f>
-        <v>gabrielac.t120708@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"fernandachicata@gmail.com")</f>
+        <v>fernandachicata@gmail.com</v>
       </c>
       <c r="I55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Marketing")</f>
-        <v>Administración y Marketing</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
+        <v>Comunicación Audiovisual y Cine</v>
       </c>
       <c r="J55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Negocios")</f>
-        <v>Negocios</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
+        <v>Comunicaciones</v>
       </c>
       <c r="K55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
-        <v>Nueva</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
+        <v>Antigua</v>
       </c>
       <c r="L55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
-        <v>Admisión Ordinaria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
+        <v>Admisión Extraordinaria (Traslados)</v>
       </c>
       <c r="M55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Virtual")</f>
-        <v>Virtual</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
+        <v>Semi-presencial</v>
       </c>
       <c r="N55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nocturno - A distancia")</f>
-        <v>Nocturno - A distancia</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
+        <v>Diurno</v>
       </c>
       <c r="O55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO SIN CONVA")</f>
+        <v>TRASLADO SIN CONVA</v>
       </c>
       <c r="P55" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
@@ -13435,12 +13354,12 @@
         <v>NINGUNO</v>
       </c>
       <c r="S55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
+        <v>RODRIGO</v>
       </c>
       <c r="T55" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45785.0)</f>
-        <v>45785</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45786.0)</f>
+        <v>45786</v>
       </c>
       <c r="U55" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
@@ -13459,17 +13378,14 @@
         <v>-</v>
       </c>
       <c r="Y55" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45785.0)</f>
-        <v>45785</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45786.0)</f>
+        <v>45786</v>
       </c>
       <c r="Z55" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -13480,12 +13396,12 @@
         <v>0</v>
       </c>
       <c r="AE55" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
-        <v>750</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
       </c>
       <c r="AF55" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
-        <v>750</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
       </c>
       <c r="AG55" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -13500,28 +13416,28 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1755453.0)</f>
-        <v>1755453</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1335033.0)</f>
+        <v>1335033</v>
       </c>
       <c r="AK55" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
         <v>Más de 15 kms</v>
       </c>
       <c r="AL55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
-        <v>01 Nacional</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"04 200 a 300")</f>
+        <v>04 200 a 300</v>
       </c>
       <c r="AM55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Universidad La Salle")</f>
+        <v>Universidad La Salle</v>
       </c>
       <c r="AN55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
+        <v> </v>
       </c>
       <c r="AO55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2020.0)</f>
-        <v>2020</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2023.0)</f>
+        <v>2023</v>
       </c>
       <c r="AP55" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -13532,8 +13448,8 @@
         <v>45775</v>
       </c>
       <c r="AR55" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
-        <v>45775</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45754.0)</f>
+        <v>45754</v>
       </c>
       <c r="AS55" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
@@ -13544,44 +13460,44 @@
         <v>45747</v>
       </c>
       <c r="AU55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
-        <v>10</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
       </c>
       <c r="AV55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
-        <v>DIGITAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
       </c>
       <c r="AW55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FORMULARIO")</f>
-        <v>FORMULARIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
       </c>
       <c r="AX55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
-        <v>ORGANICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
       </c>
       <c r="AY55" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Juan Manuel Rodríguez")</f>
-        <v>Juan Manuel Rodríguez</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Rosa Ugarte")</f>
+        <v>Rosa Ugarte</v>
       </c>
       <c r="BA55" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB55" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
-        <v>750</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
       </c>
       <c r="BC55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="BD55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redaccion")</f>
-        <v>Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
       </c>
       <c r="BE55" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -13595,10 +13511,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45794.0)</f>
         <v>45794</v>
       </c>
-      <c r="BH55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"17/05/2025")</f>
-        <v>17/05/2025</v>
-      </c>
+      <c r="BH55" s="1"/>
       <c r="BI55" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
@@ -13614,40 +13527,40 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5106688.0)</f>
-        <v>5106688</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),529222.0)</f>
+        <v>529222</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425303")</f>
-        <v>0000425303</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"2015001004")</f>
+        <v>2015001004</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERNANDA GUADALUPE ")</f>
-        <v>FERNANDA GUADALUPE </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CYNTHIA GABRIELA")</f>
+        <v>CYNTHIA GABRIELA</v>
       </c>
       <c r="E56" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CHICATA GOMEZ")</f>
-        <v>CHICATA GOMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROCHA HERENCIA")</f>
+        <v>ROCHA HERENCIA</v>
       </c>
       <c r="F56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0059258E7)</f>
-        <v>60059258</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0248825E7)</f>
+        <v>70248825</v>
       </c>
       <c r="G56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.54091542E8)</f>
-        <v>954091542</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.56765081E8)</f>
+        <v>956765081</v>
       </c>
       <c r="H56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"fernandachicata@gmail.com")</f>
-        <v>fernandachicata@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cynthiarochaherencia@icloud.com")</f>
+        <v>cynthiarochaherencia@icloud.com</v>
       </c>
       <c r="I56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
-        <v>Comunicación Audiovisual y Cine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura")</f>
+        <v>Arquitectura</v>
       </c>
       <c r="J56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
-        <v>Comunicaciones</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
+        <v>Arquitecturas</v>
       </c>
       <c r="K56" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
@@ -13666,16 +13579,16 @@
         <v>Diurno</v>
       </c>
       <c r="O56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO SIN CONVA")</f>
-        <v>TRASLADO SIN CONVA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
+        <v>TRASLADO CON CONVA</v>
       </c>
       <c r="P56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
-        <v>ESCALA REGULAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECA")</f>
+        <v>RECA</v>
       </c>
       <c r="Q56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
-        <v>NINGUNO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECATEGORIZACIÓN")</f>
+        <v>RECATEGORIZACIÓN</v>
       </c>
       <c r="R56" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
@@ -13690,8 +13603,8 @@
         <v>45786</v>
       </c>
       <c r="U56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
-        <v>CARGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago Link")</f>
+        <v>Pago Link</v>
       </c>
       <c r="V56" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
@@ -13713,10 +13626,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -13727,12 +13637,12 @@
         <v>0</v>
       </c>
       <c r="AE56" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
-        <v>1050</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),900.0)</f>
+        <v>900</v>
       </c>
       <c r="AF56" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
-        <v>1050</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),900.0)</f>
+        <v>900</v>
       </c>
       <c r="AG56" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -13747,28 +13657,28 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1335033.0)</f>
-        <v>1335033</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1422013.0)</f>
+        <v>1422013</v>
       </c>
       <c r="AK56" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
         <v>Más de 15 kms</v>
       </c>
       <c r="AL56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"04 200 a 300")</f>
-        <v>04 200 a 300</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
+        <v>05 301 a 550</v>
       </c>
       <c r="AM56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Universidad La Salle")</f>
-        <v>Universidad La Salle</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Instituto de Educación Superior Tecnológico Privado Toulouse Lautrec")</f>
+        <v>Instituto de Educación Superior Tecnológico Privado Toulouse Lautrec</v>
       </c>
       <c r="AN56" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
         <v> </v>
       </c>
       <c r="AO56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2023.0)</f>
-        <v>2023</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2014.0)</f>
+        <v>2014</v>
       </c>
       <c r="AP56" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -13779,20 +13689,20 @@
         <v>45775</v>
       </c>
       <c r="AR56" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45754.0)</f>
-        <v>45754</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45779.0)</f>
+        <v>45779</v>
       </c>
       <c r="AS56" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
-        <v>45748</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
+        <v>45778</v>
       </c>
       <c r="AT56" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
-        <v>45747</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
+        <v>45775</v>
       </c>
       <c r="AU56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
+        <v>7</v>
       </c>
       <c r="AV56" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
@@ -13811,21 +13721,18 @@
         <v>1</v>
       </c>
       <c r="AZ56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Rosa Ugarte")</f>
-        <v>Rosa Ugarte</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Angelica Iparraguirre")</f>
+        <v>Angelica Iparraguirre</v>
       </c>
       <c r="BA56" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB56" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
-        <v>1050</v>
-      </c>
-      <c r="BC56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),900.0)</f>
+        <v>900</v>
+      </c>
+      <c r="BC56" s="1"/>
       <c r="BD56" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
         <v> -</v>
@@ -13838,11 +13745,11 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="BG56" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45794.0)</f>
-        <v>45794</v>
-      </c>
-      <c r="BH56" s="1"/>
+      <c r="BG56" s="1"/>
+      <c r="BH56" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No aplica")</f>
+        <v>No aplica</v>
+      </c>
       <c r="BI56" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
@@ -13858,48 +13765,48 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),529222.0)</f>
-        <v>529222</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5130551.0)</f>
+        <v>5130551</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"2015001004")</f>
-        <v>2015001004</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425422")</f>
+        <v>0000425422</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CYNTHIA GABRIELA")</f>
-        <v>CYNTHIA GABRIELA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANIELA VACILIA")</f>
+        <v>DANIELA VACILIA</v>
       </c>
       <c r="E57" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROCHA HERENCIA")</f>
-        <v>ROCHA HERENCIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CASTRO COLCA")</f>
+        <v>CASTRO COLCA</v>
       </c>
       <c r="F57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0248825E7)</f>
-        <v>70248825</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0007445E7)</f>
+        <v>60007445</v>
       </c>
       <c r="G57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.56765081E8)</f>
-        <v>956765081</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.04256793E8)</f>
+        <v>904256793</v>
       </c>
       <c r="H57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cynthiarochaherencia@icloud.com")</f>
-        <v>cynthiarochaherencia@icloud.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"danielacolcacastro@gmail.com")</f>
+        <v>danielacolcacastro@gmail.com</v>
       </c>
       <c r="I57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura")</f>
-        <v>Arquitectura</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
+        <v>Diseño Gráfico Publicitario</v>
       </c>
       <c r="J57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
-        <v>Arquitecturas</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño")</f>
+        <v>Diseño</v>
       </c>
       <c r="K57" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
         <v>Antigua</v>
       </c>
       <c r="L57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
-        <v>Admisión Extraordinaria (Traslados)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
+        <v>Admisión Ordinaria</v>
       </c>
       <c r="M57" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
@@ -13910,32 +13817,32 @@
         <v>Diurno</v>
       </c>
       <c r="O57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
-        <v>TRASLADO CON CONVA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
       </c>
       <c r="P57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECA")</f>
-        <v>RECA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
       </c>
       <c r="Q57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECATEGORIZACIÓN")</f>
-        <v>RECATEGORIZACIÓN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
       </c>
       <c r="R57" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
         <v>NINGUNO</v>
       </c>
       <c r="S57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
-        <v>RODRIGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="T57" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45786.0)</f>
-        <v>45786</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45787.0)</f>
+        <v>45787</v>
       </c>
       <c r="U57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago Link")</f>
-        <v>Pago Link</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
+        <v>CARGO</v>
       </c>
       <c r="V57" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
@@ -13950,33 +13857,30 @@
         <v>-</v>
       </c>
       <c r="Y57" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45786.0)</f>
-        <v>45786</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45787.0)</f>
+        <v>45787</v>
       </c>
       <c r="Z57" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
       </c>
       <c r="AD57" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
       </c>
       <c r="AE57" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),900.0)</f>
-        <v>900</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1100.0)</f>
+        <v>1100</v>
       </c>
       <c r="AF57" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),900.0)</f>
-        <v>900</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1100.0)</f>
+        <v>1100</v>
       </c>
       <c r="AG57" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -13991,28 +13895,28 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1422013.0)</f>
-        <v>1422013</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1595362.0)</f>
+        <v>1595362</v>
       </c>
       <c r="AK57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
-        <v>Más de 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
+        <v>10 kms a 15 kms</v>
       </c>
       <c r="AL57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
-        <v>05 301 a 550</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"04 200 a 300")</f>
+        <v>04 200 a 300</v>
       </c>
       <c r="AM57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Instituto de Educación Superior Tecnológico Privado Toulouse Lautrec")</f>
-        <v>Instituto de Educación Superior Tecnológico Privado Toulouse Lautrec</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="AN57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
-        <v> </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
       </c>
       <c r="AO57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2014.0)</f>
-        <v>2014</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
+        <v>2024</v>
       </c>
       <c r="AP57" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -14023,66 +13927,72 @@
         <v>45775</v>
       </c>
       <c r="AR57" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45779.0)</f>
-        <v>45779</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45756.0)</f>
+        <v>45756</v>
       </c>
       <c r="AS57" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
-        <v>45778</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
+        <v>45748</v>
       </c>
       <c r="AT57" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
-        <v>45775</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
+        <v>45747</v>
       </c>
       <c r="AU57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
-        <v>7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31.0)</f>
+        <v>31</v>
       </c>
       <c r="AV57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
-        <v>OUTBOUND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
+        <v>TRADICIONAL</v>
       </c>
       <c r="AW57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
-        <v>OUTBOUND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EVENTOS")</f>
+        <v>EVENTOS</v>
       </c>
       <c r="AX57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
-        <v>OUTBOUND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EVENTOS")</f>
+        <v>EVENTOS</v>
       </c>
       <c r="AY57" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Angelica Iparraguirre")</f>
-        <v>Angelica Iparraguirre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Andrea Araujo Antara")</f>
+        <v>Andrea Araujo Antara</v>
       </c>
       <c r="BA57" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB57" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),900.0)</f>
-        <v>900</v>
-      </c>
-      <c r="BC57" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1100.0)</f>
+        <v>1100</v>
+      </c>
+      <c r="BC57" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
       <c r="BD57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redaccion")</f>
+        <v>Redaccion</v>
       </c>
       <c r="BE57" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BF57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG57" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG57" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45794.0)</f>
+        <v>45794</v>
+      </c>
       <c r="BH57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No aplica")</f>
-        <v>No aplica</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"17/05/2025")</f>
+        <v>17/05/2025</v>
       </c>
       <c r="BI57" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -14099,44 +14009,44 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5130551.0)</f>
-        <v>5130551</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2035686.0)</f>
+        <v>2035686</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425422")</f>
-        <v>0000425422</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425485")</f>
+        <v>0000425485</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANIELA VACILIA")</f>
-        <v>DANIELA VACILIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVANA SAMANTA ")</f>
+        <v>IVANA SAMANTA </v>
       </c>
       <c r="E58" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CASTRO COLCA")</f>
-        <v>CASTRO COLCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MENDOZA GUERRA")</f>
+        <v>MENDOZA GUERRA</v>
       </c>
       <c r="F58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0007445E7)</f>
-        <v>60007445</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.103264E7)</f>
+        <v>61032640</v>
       </c>
       <c r="G58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.04256793E8)</f>
-        <v>904256793</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.31827779E8)</f>
+        <v>931827779</v>
       </c>
       <c r="H58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"danielacolcacastro@gmail.com")</f>
-        <v>danielacolcacastro@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"soyivana.20033@gmail.com")</f>
+        <v>soyivana.20033@gmail.com</v>
       </c>
       <c r="I58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
-        <v>Diseño Gráfico Publicitario</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Negocios Internacionales")</f>
+        <v>Administración y Negocios Internacionales</v>
       </c>
       <c r="J58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño")</f>
-        <v>Diseño</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Negocios")</f>
+        <v>Negocios</v>
       </c>
       <c r="K58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
-        <v>Antigua</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
+        <v>Nueva</v>
       </c>
       <c r="L58" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
@@ -14171,8 +14081,8 @@
         <v>-</v>
       </c>
       <c r="T58" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45787.0)</f>
-        <v>45787</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45789.0)</f>
+        <v>45789</v>
       </c>
       <c r="U58" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
@@ -14191,17 +14101,14 @@
         <v>-</v>
       </c>
       <c r="Y58" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45787.0)</f>
-        <v>45787</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45789.0)</f>
+        <v>45789</v>
       </c>
       <c r="Z58" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
@@ -14212,12 +14119,12 @@
         <v>95</v>
       </c>
       <c r="AE58" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1100.0)</f>
-        <v>1100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
+        <v>1250</v>
       </c>
       <c r="AF58" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1100.0)</f>
-        <v>1100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
+        <v>1250</v>
       </c>
       <c r="AG58" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -14232,16 +14139,16 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1595362.0)</f>
-        <v>1595362</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),901108.0)</f>
+        <v>901108</v>
       </c>
       <c r="AK58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
-        <v>10 kms a 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
+        <v>Más de 15 kms</v>
       </c>
       <c r="AL58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"04 200 a 300")</f>
-        <v>04 200 a 300</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"03 101 a 200")</f>
+        <v>03 101 a 200</v>
       </c>
       <c r="AM58" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
@@ -14276,20 +14183,20 @@
         <v>45747</v>
       </c>
       <c r="AU58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31.0)</f>
-        <v>31</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
+        <v>33</v>
       </c>
       <c r="AV58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
-        <v>TRADICIONAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
+        <v>DIGITAL</v>
       </c>
       <c r="AW58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EVENTOS")</f>
-        <v>EVENTOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
+        <v>BIDIRECCIONAL</v>
       </c>
       <c r="AX58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EVENTOS")</f>
-        <v>EVENTOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
+        <v>ORGANICO</v>
       </c>
       <c r="AY58" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -14304,16 +14211,16 @@
         <v>1</v>
       </c>
       <c r="BB58" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1100.0)</f>
-        <v>1100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
+        <v>1250</v>
       </c>
       <c r="BC58" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BD58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redaccion")</f>
-        <v>Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas")</f>
+        <v>Matemáticas</v>
       </c>
       <c r="BE58" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -14346,48 +14253,48 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2035686.0)</f>
-        <v>2035686</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1026635.0)</f>
+        <v>1026635</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425485")</f>
-        <v>0000425485</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425818")</f>
+        <v>0000425818</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVANA SAMANTA ")</f>
-        <v>IVANA SAMANTA </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KAREL CRISTINA")</f>
+        <v>KAREL CRISTINA</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MENDOZA GUERRA")</f>
-        <v>MENDOZA GUERRA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARTINEZ HUALLANAY")</f>
+        <v>MARTINEZ HUALLANAY</v>
       </c>
       <c r="F59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.103264E7)</f>
-        <v>61032640</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.5621126E7)</f>
+        <v>75621126</v>
       </c>
       <c r="G59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.31827779E8)</f>
-        <v>931827779</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.43722859E8)</f>
+        <v>943722859</v>
       </c>
       <c r="H59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"soyivana.20033@gmail.com")</f>
-        <v>soyivana.20033@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"karel_cristina24@hotmail.com")</f>
+        <v>karel_cristina24@hotmail.com</v>
       </c>
       <c r="I59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Negocios Internacionales")</f>
-        <v>Administración y Negocios Internacionales</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura")</f>
+        <v>Arquitectura</v>
       </c>
       <c r="J59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Negocios")</f>
-        <v>Negocios</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
+        <v>Arquitecturas</v>
       </c>
       <c r="K59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
-        <v>Nueva</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
+        <v>Antigua</v>
       </c>
       <c r="L59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
-        <v>Admisión Ordinaria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
+        <v>Admisión Extraordinaria (Traslados)</v>
       </c>
       <c r="M59" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
@@ -14398,28 +14305,28 @@
         <v>Diurno</v>
       </c>
       <c r="O59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
+        <v>TRASLADO CON CONVA</v>
       </c>
       <c r="P59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
-        <v>ESCALA REGULAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECA")</f>
+        <v>RECA</v>
       </c>
       <c r="Q59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
-        <v>NINGUNO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECATEGORIZACIÓN")</f>
+        <v>RECATEGORIZACIÓN</v>
       </c>
       <c r="R59" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
         <v>NINGUNO</v>
       </c>
       <c r="S59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
+        <v>FABIOLA</v>
       </c>
       <c r="T59" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45789.0)</f>
-        <v>45789</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45791.0)</f>
+        <v>45791</v>
       </c>
       <c r="U59" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
@@ -14438,33 +14345,30 @@
         <v>-</v>
       </c>
       <c r="Y59" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45789.0)</f>
-        <v>45789</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45792.0)</f>
+        <v>45792</v>
       </c>
       <c r="Z59" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AD59" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
-        <v>95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AE59" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
-        <v>1250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
       </c>
       <c r="AF59" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
-        <v>1250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
       </c>
       <c r="AG59" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -14479,28 +14383,28 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),901108.0)</f>
-        <v>901108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),765370.0)</f>
+        <v>765370</v>
       </c>
       <c r="AK59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
-        <v>Más de 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Menos de 5 kms")</f>
+        <v>Menos de 5 kms</v>
       </c>
       <c r="AL59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"03 101 a 200")</f>
-        <v>03 101 a 200</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
+        <v>01 Nacional</v>
       </c>
       <c r="AM59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISIL")</f>
+        <v>ISIL</v>
       </c>
       <c r="AN59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
+        <v> </v>
       </c>
       <c r="AO59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
-        <v>2024</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2018.0)</f>
+        <v>2018</v>
       </c>
       <c r="AP59" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -14511,72 +14415,66 @@
         <v>45775</v>
       </c>
       <c r="AR59" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45756.0)</f>
-        <v>45756</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45779.0)</f>
+        <v>45779</v>
       </c>
       <c r="AS59" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
-        <v>45748</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
+        <v>45778</v>
       </c>
       <c r="AT59" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
-        <v>45747</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
+        <v>45775</v>
       </c>
       <c r="AU59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
-        <v>33</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
+        <v>13</v>
       </c>
       <c r="AV59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
-        <v>DIGITAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
+        <v>TRADICIONAL</v>
       </c>
       <c r="AW59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
-        <v>BIDIRECCIONAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EVENTOS")</f>
+        <v>EVENTOS</v>
       </c>
       <c r="AX59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
-        <v>ORGANICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EVENTOS")</f>
+        <v>EVENTOS</v>
       </c>
       <c r="AY59" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Andrea Araujo Antara")</f>
-        <v>Andrea Araujo Antara</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Angelica Iparraguirre")</f>
+        <v>Angelica Iparraguirre</v>
       </c>
       <c r="BA59" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB59" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
-        <v>1250</v>
-      </c>
-      <c r="BC59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
+      </c>
+      <c r="BC59" s="1"/>
       <c r="BD59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas")</f>
-        <v>Matemáticas</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
       </c>
       <c r="BE59" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BF59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-      <c r="BG59" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45794.0)</f>
-        <v>45794</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG59" s="1"/>
       <c r="BH59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"17/05/2025")</f>
-        <v>17/05/2025</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No aplica")</f>
+        <v>No aplica</v>
       </c>
       <c r="BI59" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -14593,44 +14491,44 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1026635.0)</f>
-        <v>1026635</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5136858.0)</f>
+        <v>5136858</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425818")</f>
-        <v>0000425818</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000424523")</f>
+        <v>0000424523</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KAREL CRISTINA")</f>
-        <v>KAREL CRISTINA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NALLELY ADELINA")</f>
+        <v>NALLELY ADELINA</v>
       </c>
       <c r="E60" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARTINEZ HUALLANAY")</f>
-        <v>MARTINEZ HUALLANAY</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"QUISPE LOZANO")</f>
+        <v>QUISPE LOZANO</v>
       </c>
       <c r="F60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.5621126E7)</f>
-        <v>75621126</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1251572E7)</f>
+        <v>61251572</v>
       </c>
       <c r="G60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.43722859E8)</f>
-        <v>943722859</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.41076065E8)</f>
+        <v>941076065</v>
       </c>
       <c r="H60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"karel_cristina24@hotmail.com")</f>
-        <v>karel_cristina24@hotmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lozanonalle7@gmail.com")</f>
+        <v>lozanonalle7@gmail.com</v>
       </c>
       <c r="I60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura")</f>
-        <v>Arquitectura</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Negocios Internacionales")</f>
+        <v>Administración y Negocios Internacionales</v>
       </c>
       <c r="J60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
-        <v>Arquitecturas</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Negocios")</f>
+        <v>Negocios</v>
       </c>
       <c r="K60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
-        <v>Antigua</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
+        <v>Nueva</v>
       </c>
       <c r="L60" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
@@ -14645,16 +14543,16 @@
         <v>Diurno</v>
       </c>
       <c r="O60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
-        <v>TRASLADO CON CONVA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO SIN CONVA")</f>
+        <v>TRASLADO SIN CONVA</v>
       </c>
       <c r="P60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECA")</f>
-        <v>RECA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
+        <v>BECA</v>
       </c>
       <c r="Q60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECATEGORIZACIÓN")</f>
-        <v>RECATEGORIZACIÓN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS NUEVAS")</f>
+        <v>BECA CARRERAS NUEVAS</v>
       </c>
       <c r="R60" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
@@ -14669,33 +14567,30 @@
         <v>45791</v>
       </c>
       <c r="U60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
-        <v>CARGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago Link")</f>
+        <v>Pago Link</v>
       </c>
       <c r="V60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
-        <v>PAGO COMPLETO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
       </c>
       <c r="W60" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
       <c r="X60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"12/06/2025")</f>
+        <v>12/06/2025</v>
       </c>
       <c r="Y60" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45792.0)</f>
-        <v>45792</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45820.0)</f>
+        <v>45820</v>
       </c>
       <c r="Z60" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -14706,12 +14601,12 @@
         <v>0</v>
       </c>
       <c r="AE60" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
       </c>
       <c r="AF60" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),950.0)</f>
+        <v>950</v>
       </c>
       <c r="AG60" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -14726,17 +14621,11 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),765370.0)</f>
-        <v>765370</v>
-      </c>
-      <c r="AK60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Menos de 5 kms")</f>
-        <v>Menos de 5 kms</v>
-      </c>
-      <c r="AL60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
-        <v>01 Nacional</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1070804.0)</f>
+        <v>1070804</v>
+      </c>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
       <c r="AM60" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISIL")</f>
         <v>ISIL</v>
@@ -14746,8 +14635,8 @@
         <v> </v>
       </c>
       <c r="AO60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2018.0)</f>
-        <v>2018</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
+        <v>2024</v>
       </c>
       <c r="AP60" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -14758,32 +14647,32 @@
         <v>45775</v>
       </c>
       <c r="AR60" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45779.0)</f>
-        <v>45779</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45756.0)</f>
+        <v>45756</v>
       </c>
       <c r="AS60" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
-        <v>45778</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
+        <v>45748</v>
       </c>
       <c r="AT60" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
-        <v>45775</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
+        <v>45747</v>
       </c>
       <c r="AU60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),64.0)</f>
+        <v>64</v>
       </c>
       <c r="AV60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
-        <v>TRADICIONAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
+        <v>DIGITAL</v>
       </c>
       <c r="AW60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EVENTOS")</f>
-        <v>EVENTOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
+        <v>BIDIRECCIONAL</v>
       </c>
       <c r="AX60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EVENTOS")</f>
-        <v>EVENTOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
+        <v>ORGANICO</v>
       </c>
       <c r="AY60" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -14798,27 +14687,27 @@
         <v>1</v>
       </c>
       <c r="BB60" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
-      </c>
-      <c r="BC60" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),950.0)</f>
+        <v>950</v>
+      </c>
+      <c r="BC60" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="BD60" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
         <v> -</v>
       </c>
       <c r="BE60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="BF60" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
       <c r="BG60" s="1"/>
-      <c r="BH60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No aplica")</f>
-        <v>No aplica</v>
-      </c>
+      <c r="BH60" s="1"/>
       <c r="BI60" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
@@ -14834,44 +14723,44 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5136858.0)</f>
-        <v>5136858</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1164853.0)</f>
+        <v>1164853</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000424523")</f>
-        <v>0000424523</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000408071")</f>
+        <v>0000408071</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NALLELY ADELINA")</f>
-        <v>NALLELY ADELINA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAYSY FEORELA ")</f>
+        <v>DAYSY FEORELA </v>
       </c>
       <c r="E61" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"QUISPE LOZANO")</f>
-        <v>QUISPE LOZANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CONDORI TADEO")</f>
+        <v>CONDORI TADEO</v>
       </c>
       <c r="F61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1251572E7)</f>
-        <v>61251572</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.4725038E7)</f>
+        <v>74725038</v>
       </c>
       <c r="G61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.41076065E8)</f>
-        <v>941076065</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.61233186E8)</f>
+        <v>961233186</v>
       </c>
       <c r="H61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lozanonalle7@gmail.com")</f>
-        <v>lozanonalle7@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"daysy.condori11@gmail.com")</f>
+        <v>daysy.condori11@gmail.com</v>
       </c>
       <c r="I61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Negocios Internacionales")</f>
-        <v>Administración y Negocios Internacionales</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
+        <v>Diseño Gráfico Publicitario</v>
       </c>
       <c r="J61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Negocios")</f>
-        <v>Negocios</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño")</f>
+        <v>Diseño</v>
       </c>
       <c r="K61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
-        <v>Nueva</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
+        <v>Antigua</v>
       </c>
       <c r="L61" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
@@ -14886,54 +14775,54 @@
         <v>Diurno</v>
       </c>
       <c r="O61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO SIN CONVA")</f>
-        <v>TRASLADO SIN CONVA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
+        <v>TRASLADO CON CONVA</v>
       </c>
       <c r="P61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
-        <v>BECA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
       </c>
       <c r="Q61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS NUEVAS")</f>
-        <v>BECA CARRERAS NUEVAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
       </c>
       <c r="R61" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
         <v>NINGUNO</v>
       </c>
       <c r="S61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
-        <v>FABIOLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
+        <v>RODRIGO</v>
       </c>
       <c r="T61" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45791.0)</f>
-        <v>45791</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45792.0)</f>
+        <v>45792</v>
       </c>
       <c r="U61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago Link")</f>
-        <v>Pago Link</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
+        <v>CARGO</v>
       </c>
       <c r="V61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
       </c>
       <c r="W61" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475.0)</f>
-        <v>475</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="X61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"12/06/2025")</f>
-        <v>12/06/2025</v>
-      </c>
-      <c r="Y61" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Y61" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45792.0)</f>
+        <v>45792</v>
+      </c>
       <c r="Z61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
-      </c>
-      <c r="AA61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
+      <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -14944,12 +14833,12 @@
         <v>0</v>
       </c>
       <c r="AE61" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
-        <v>1050</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
       </c>
       <c r="AF61" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),950.0)</f>
-        <v>950</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
       </c>
       <c r="AG61" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -14964,22 +14853,28 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1070804.0)</f>
-        <v>1070804</v>
-      </c>
-      <c r="AK61" s="1"/>
-      <c r="AL61" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1084508.0)</f>
+        <v>1084508</v>
+      </c>
+      <c r="AK61" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
+        <v>Más de 15 kms</v>
+      </c>
+      <c r="AL61" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
+        <v>01 Nacional</v>
+      </c>
       <c r="AM61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISIL")</f>
-        <v>ISIL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cibertec")</f>
+        <v>Cibertec</v>
       </c>
       <c r="AN61" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
         <v> </v>
       </c>
       <c r="AO61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
-        <v>2024</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2021.0)</f>
+        <v>2021</v>
       </c>
       <c r="AP61" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -14990,67 +14885,67 @@
         <v>45775</v>
       </c>
       <c r="AR61" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45756.0)</f>
-        <v>45756</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45779.0)</f>
+        <v>45779</v>
       </c>
       <c r="AS61" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
-        <v>45748</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
+        <v>45778</v>
       </c>
       <c r="AT61" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
-        <v>45747</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
+        <v>45775</v>
       </c>
       <c r="AU61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
-        <v>35</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
+        <v>13</v>
       </c>
       <c r="AV61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
-        <v>DIGITAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
       </c>
       <c r="AW61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
-        <v>BIDIRECCIONAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
       </c>
       <c r="AX61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
-        <v>ORGANICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
       </c>
       <c r="AY61" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Angelica Iparraguirre")</f>
-        <v>Angelica Iparraguirre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Andrea Araujo Antara")</f>
+        <v>Andrea Araujo Antara</v>
       </c>
       <c r="BA61" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.5)</f>
-        <v>0.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BB61" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),950.0)</f>
-        <v>950</v>
-      </c>
-      <c r="BC61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
+      </c>
+      <c r="BC61" s="1"/>
       <c r="BD61" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
         <v> -</v>
       </c>
       <c r="BE61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF61" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
       <c r="BG61" s="1"/>
-      <c r="BH61" s="1"/>
+      <c r="BH61" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No aplica")</f>
+        <v>No aplica</v>
+      </c>
       <c r="BI61" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
@@ -15066,48 +14961,48 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1164853.0)</f>
-        <v>1164853</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3383282.0)</f>
+        <v>3383282</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000408071")</f>
-        <v>0000408071</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425833")</f>
+        <v>0000425833</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAYSY FEORELA ")</f>
-        <v>DAYSY FEORELA </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALERIA CELESTE")</f>
+        <v>VALERIA CELESTE</v>
       </c>
       <c r="E62" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CONDORI TADEO")</f>
-        <v>CONDORI TADEO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GOICOCHEA VILLANUEVA")</f>
+        <v>GOICOCHEA VILLANUEVA</v>
       </c>
       <c r="F62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.4725038E7)</f>
-        <v>74725038</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1360466E7)</f>
+        <v>61360466</v>
       </c>
       <c r="G62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.61233186E8)</f>
-        <v>961233186</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.50030918E8)</f>
+        <v>950030918</v>
       </c>
       <c r="H62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"daysy.condori11@gmail.com")</f>
-        <v>daysy.condori11@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"valeritacel0704@gmail.com")</f>
+        <v>valeritacel0704@gmail.com</v>
       </c>
       <c r="I62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
-        <v>Diseño Gráfico Publicitario</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
+        <v>Comunicación Audiovisual y Cine</v>
       </c>
       <c r="J62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño")</f>
-        <v>Diseño</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
+        <v>Comunicaciones</v>
       </c>
       <c r="K62" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
         <v>Antigua</v>
       </c>
       <c r="L62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
-        <v>Admisión Extraordinaria (Traslados)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
+        <v>Admisión de Alto Rendimiento</v>
       </c>
       <c r="M62" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
@@ -15118,20 +15013,20 @@
         <v>Diurno</v>
       </c>
       <c r="O62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
-        <v>TRASLADO CON CONVA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
       </c>
       <c r="P62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
-        <v>ESCALA REGULAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
+        <v>BECA</v>
       </c>
       <c r="Q62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
-        <v>NINGUNO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE")</f>
+        <v>BECA CARRERAS CORE</v>
       </c>
       <c r="R62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
-        <v>NINGUNO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Visita Guiada")</f>
+        <v>Visita Guiada</v>
       </c>
       <c r="S62" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
@@ -15165,26 +15060,23 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="AD62" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
       </c>
       <c r="AE62" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1700.0)</f>
+        <v>1700</v>
       </c>
       <c r="AF62" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1380.0)</f>
+        <v>1380</v>
       </c>
       <c r="AG62" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -15199,28 +15091,28 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1084508.0)</f>
-        <v>1084508</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),828491.0)</f>
+        <v>828491</v>
       </c>
       <c r="AK62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
-        <v>Más de 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5kms a 10 kms")</f>
+        <v>5kms a 10 kms</v>
       </c>
       <c r="AL62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
-        <v>01 Nacional</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
+        <v>05 301 a 550</v>
       </c>
       <c r="AM62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cibertec")</f>
-        <v>Cibertec</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="AN62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
-        <v> </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
       </c>
       <c r="AO62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2021.0)</f>
-        <v>2021</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
+        <v>2024</v>
       </c>
       <c r="AP62" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -15231,8 +15123,8 @@
         <v>45775</v>
       </c>
       <c r="AR62" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45779.0)</f>
-        <v>45779</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45791.0)</f>
+        <v>45791</v>
       </c>
       <c r="AS62" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -15243,8 +15135,8 @@
         <v>45775</v>
       </c>
       <c r="AU62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="AV62" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
@@ -15263,18 +15155,21 @@
         <v>1</v>
       </c>
       <c r="AZ62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Andrea Araujo Antara")</f>
-        <v>Andrea Araujo Antara</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Rosa Ugarte")</f>
+        <v>Rosa Ugarte</v>
       </c>
       <c r="BA62" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB62" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
-      </c>
-      <c r="BC62" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1360.0)</f>
+        <v>1360</v>
+      </c>
+      <c r="BC62" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="BD62" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
         <v> -</v>
@@ -15287,11 +15182,11 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="BG62" s="1"/>
-      <c r="BH62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No aplica")</f>
-        <v>No aplica</v>
-      </c>
+      <c r="BG62" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
+        <v>45815</v>
+      </c>
+      <c r="BH62" s="1"/>
       <c r="BI62" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
@@ -15307,44 +15202,44 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3383282.0)</f>
-        <v>3383282</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4915543.0)</f>
+        <v>4915543</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425833")</f>
-        <v>0000425833</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425785")</f>
+        <v>0000425785</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALERIA CELESTE")</f>
-        <v>VALERIA CELESTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SHERIN")</f>
+        <v>SHERIN</v>
       </c>
       <c r="E63" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GOICOCHEA VILLANUEVA")</f>
-        <v>GOICOCHEA VILLANUEVA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATOS PAUCAR")</f>
+        <v>MATOS PAUCAR</v>
       </c>
       <c r="F63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1360466E7)</f>
-        <v>61360466</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1758547E7)</f>
+        <v>61758547</v>
       </c>
       <c r="G63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.50030918E8)</f>
-        <v>950030918</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.86925704E8)</f>
+        <v>986925704</v>
       </c>
       <c r="H63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"valeritacel0704@gmail.com")</f>
-        <v>valeritacel0704@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"she3inmat0s@gmail.com")</f>
+        <v>she3inmat0s@gmail.com</v>
       </c>
       <c r="I63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
-        <v>Comunicación Audiovisual y Cine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Negocios Internacionales")</f>
+        <v>Administración y Negocios Internacionales</v>
       </c>
       <c r="J63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
-        <v>Comunicaciones</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Negocios")</f>
+        <v>Negocios</v>
       </c>
       <c r="K63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
-        <v>Antigua</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
+        <v>Nueva</v>
       </c>
       <c r="L63" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
@@ -15367,65 +15262,59 @@
         <v>BECA</v>
       </c>
       <c r="Q63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE")</f>
-        <v>BECA CARRERAS CORE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS NUEVAS")</f>
+        <v>BECA CARRERAS NUEVAS</v>
       </c>
       <c r="R63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Visita Guiada")</f>
-        <v>Visita Guiada</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
       </c>
       <c r="S63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
-        <v>RODRIGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
+        <v>FABIOLA</v>
       </c>
       <c r="T63" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45792.0)</f>
         <v>45792</v>
       </c>
       <c r="U63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
-        <v>CARGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago Link")</f>
+        <v>Pago Link</v>
       </c>
       <c r="V63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
-        <v>PAGO COMPLETO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
       </c>
       <c r="W63" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475.0)</f>
+        <v>475</v>
+      </c>
+      <c r="X63" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"12/06/2025")</f>
+        <v>12/06/2025</v>
+      </c>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
+      </c>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="X63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="Y63" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45792.0)</f>
-        <v>45792</v>
-      </c>
-      <c r="Z63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
-        <v>PAGO COMPLETO</v>
-      </c>
-      <c r="AA63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB63" s="1"/>
-      <c r="AC63" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
-      </c>
       <c r="AD63" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
-        <v>95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AE63" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1700.0)</f>
-        <v>1700</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1100.0)</f>
+        <v>1100</v>
       </c>
       <c r="AF63" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1380.0)</f>
-        <v>1380</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),950.0)</f>
+        <v>950</v>
       </c>
       <c r="AG63" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -15440,17 +15329,11 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),828491.0)</f>
-        <v>828491</v>
-      </c>
-      <c r="AK63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5kms a 10 kms")</f>
-        <v>5kms a 10 kms</v>
-      </c>
-      <c r="AL63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
-        <v>05 301 a 550</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1070804.0)</f>
+        <v>1070804</v>
+      </c>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
       <c r="AM63" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -15472,20 +15355,20 @@
         <v>45775</v>
       </c>
       <c r="AR63" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45791.0)</f>
-        <v>45791</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45769.0)</f>
+        <v>45769</v>
       </c>
       <c r="AS63" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
-        <v>45778</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
+        <v>45748</v>
       </c>
       <c r="AT63" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
-        <v>45775</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
+        <v>45747</v>
       </c>
       <c r="AU63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
+        <v>23</v>
       </c>
       <c r="AV63" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
@@ -15504,16 +15387,16 @@
         <v>1</v>
       </c>
       <c r="AZ63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Rosa Ugarte")</f>
-        <v>Rosa Ugarte</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Angelica Iparraguirre")</f>
+        <v>Angelica Iparraguirre</v>
       </c>
       <c r="BA63" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.5)</f>
+        <v>0.5</v>
       </c>
       <c r="BB63" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1360.0)</f>
-        <v>1360</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),950.0)</f>
+        <v>950</v>
       </c>
       <c r="BC63" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -15524,8 +15407,8 @@
         <v> -</v>
       </c>
       <c r="BE63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="BF63" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -15551,32 +15434,32 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4915543.0)</f>
-        <v>4915543</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2498233.0)</f>
+        <v>2498233</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425785")</f>
-        <v>0000425785</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425941")</f>
+        <v>0000425941</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SHERIN")</f>
-        <v>SHERIN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALERIA ")</f>
+        <v>VALERIA </v>
       </c>
       <c r="E64" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATOS PAUCAR")</f>
-        <v>MATOS PAUCAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BERNABE NATIVIDAD")</f>
+        <v>BERNABE NATIVIDAD</v>
       </c>
       <c r="F64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1758547E7)</f>
-        <v>61758547</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0967878E7)</f>
+        <v>70967878</v>
       </c>
       <c r="G64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.86925704E8)</f>
-        <v>986925704</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.20449791E8)</f>
+        <v>920449791</v>
       </c>
       <c r="H64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"she3inmat0s@gmail.com")</f>
-        <v>she3inmat0s@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bernabe.natividad123@gmail.com")</f>
+        <v>bernabe.natividad123@gmail.com</v>
       </c>
       <c r="I64" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Negocios Internacionales")</f>
@@ -15619,12 +15502,12 @@
         <v>NINGUNO</v>
       </c>
       <c r="S64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
-        <v>FABIOLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
+        <v>RODRIGO</v>
       </c>
       <c r="T64" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45792.0)</f>
-        <v>45792</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45793.0)</f>
+        <v>45793</v>
       </c>
       <c r="U64" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago Link")</f>
@@ -15635,38 +15518,38 @@
         <v>PAGO FRACCIONADO</v>
       </c>
       <c r="W64" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475.0)</f>
-        <v>475</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="X64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"12/06/2025")</f>
-        <v>12/06/2025</v>
-      </c>
-      <c r="Y64" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"24/05/2025")</f>
+        <v>24/05/2025</v>
+      </c>
+      <c r="Y64" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45801.0)</f>
+        <v>45801</v>
+      </c>
       <c r="Z64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
-      </c>
-      <c r="AA64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
+      <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="AD64" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
       </c>
       <c r="AE64" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1100.0)</f>
-        <v>1100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
+        <v>1250</v>
       </c>
       <c r="AF64" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),950.0)</f>
-        <v>950</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
       </c>
       <c r="AG64" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -15681,8 +15564,8 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1070804.0)</f>
-        <v>1070804</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1474832.0)</f>
+        <v>1474832</v>
       </c>
       <c r="AK64" s="1"/>
       <c r="AL64" s="1"/>
@@ -15707,8 +15590,8 @@
         <v>45775</v>
       </c>
       <c r="AR64" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45769.0)</f>
-        <v>45769</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45776.0)</f>
+        <v>45776</v>
       </c>
       <c r="AS64" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
@@ -15719,48 +15602,48 @@
         <v>45747</v>
       </c>
       <c r="AU64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
-        <v>23</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
+        <v>25</v>
       </c>
       <c r="AV64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
-        <v>OUTBOUND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
+        <v>TRADICIONAL</v>
       </c>
       <c r="AW64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
-        <v>OUTBOUND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VISITA")</f>
+        <v>VISITA</v>
       </c>
       <c r="AX64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
-        <v>OUTBOUND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VISITA")</f>
+        <v>VISITA</v>
       </c>
       <c r="AY64" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Angelica Iparraguirre")</f>
-        <v>Angelica Iparraguirre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Rosa Ugarte")</f>
+        <v>Rosa Ugarte</v>
       </c>
       <c r="BA64" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.5)</f>
-        <v>0.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BB64" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),950.0)</f>
-        <v>950</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
       </c>
       <c r="BC64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BD64" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
         <v> -</v>
       </c>
       <c r="BE64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF64" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -15770,7 +15653,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
         <v>45815</v>
       </c>
-      <c r="BH64" s="1"/>
+      <c r="BH64" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"07/06/2025")</f>
+        <v>07/06/2025</v>
+      </c>
       <c r="BI64" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
@@ -15786,48 +15672,48 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2498233.0)</f>
-        <v>2498233</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4827401.0)</f>
+        <v>4827401</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425941")</f>
-        <v>0000425941</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000402495")</f>
+        <v>0000402495</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALERIA ")</f>
-        <v>VALERIA </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARIANNA BELEN ")</f>
+        <v>ARIANNA BELEN </v>
       </c>
       <c r="E65" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BERNABE NATIVIDAD")</f>
-        <v>BERNABE NATIVIDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SAENZ SOTOMAYOR")</f>
+        <v>SAENZ SOTOMAYOR</v>
       </c>
       <c r="F65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0967878E7)</f>
-        <v>70967878</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3247053E7)</f>
+        <v>73247053</v>
       </c>
       <c r="G65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.20449791E8)</f>
-        <v>920449791</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.43299925E8)</f>
+        <v>943299925</v>
       </c>
       <c r="H65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bernabe.natividad123@gmail.com")</f>
-        <v>bernabe.natividad123@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"arisaenz27@gmail.com")</f>
+        <v>arisaenz27@gmail.com</v>
       </c>
       <c r="I65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Negocios Internacionales")</f>
-        <v>Administración y Negocios Internacionales</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura de Interiores")</f>
+        <v>Arquitectura de Interiores</v>
       </c>
       <c r="J65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Negocios")</f>
-        <v>Negocios</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
+        <v>Arquitecturas</v>
       </c>
       <c r="K65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
-        <v>Nueva</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
+        <v>Antigua</v>
       </c>
       <c r="L65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
-        <v>Admisión de Alto Rendimiento</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
+        <v>Admisión Extraordinaria (Traslados)</v>
       </c>
       <c r="M65" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
@@ -15838,16 +15724,16 @@
         <v>Diurno</v>
       </c>
       <c r="O65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
+        <v>TRASLADO CON CONVA</v>
       </c>
       <c r="P65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
-        <v>BECA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
       </c>
       <c r="Q65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS NUEVAS")</f>
-        <v>BECA CARRERAS NUEVAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
       </c>
       <c r="R65" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
@@ -15858,53 +15744,50 @@
         <v>RODRIGO</v>
       </c>
       <c r="T65" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45793.0)</f>
-        <v>45793</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45797.0)</f>
+        <v>45797</v>
       </c>
       <c r="U65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago Link")</f>
-        <v>Pago Link</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
+        <v>CARGO</v>
       </c>
       <c r="V65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
       </c>
       <c r="W65" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
       <c r="X65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"24/05/2025")</f>
-        <v>24/05/2025</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="Y65" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45801.0)</f>
-        <v>45801</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45797.0)</f>
+        <v>45797</v>
       </c>
       <c r="Z65" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AD65" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
-        <v>95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AE65" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
-        <v>1250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1450.0)</f>
+        <v>1450</v>
       </c>
       <c r="AF65" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
-        <v>1050</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1450.0)</f>
+        <v>1450</v>
       </c>
       <c r="AG65" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -15919,22 +15802,22 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1474832.0)</f>
-        <v>1474832</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1018290.0)</f>
+        <v>1018290</v>
       </c>
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
       <c r="AM65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Universidad de Piura")</f>
+        <v>Universidad de Piura</v>
       </c>
       <c r="AN65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
+        <v> </v>
       </c>
       <c r="AO65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
-        <v>2024</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2020.0)</f>
+        <v>2020</v>
       </c>
       <c r="AP65" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -15945,53 +15828,50 @@
         <v>45775</v>
       </c>
       <c r="AR65" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45776.0)</f>
-        <v>45776</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45796.0)</f>
+        <v>45796</v>
       </c>
       <c r="AS65" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
-        <v>45748</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
+        <v>45778</v>
       </c>
       <c r="AT65" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
-        <v>45747</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
+        <v>45775</v>
       </c>
       <c r="AU65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
-        <v>25</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="AV65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
-        <v>TRADICIONAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
+        <v>DIGITAL</v>
       </c>
       <c r="AW65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VISITA")</f>
-        <v>VISITA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FORMULARIO")</f>
+        <v>FORMULARIO</v>
       </c>
       <c r="AX65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VISITA")</f>
-        <v>VISITA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
+        <v>ORGANICO</v>
       </c>
       <c r="AY65" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Rosa Ugarte")</f>
-        <v>Rosa Ugarte</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Andrea Araujo Antara")</f>
+        <v>Andrea Araujo Antara</v>
       </c>
       <c r="BA65" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB65" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
-        <v>1050</v>
-      </c>
-      <c r="BC65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1450.0)</f>
+        <v>1450</v>
+      </c>
+      <c r="BC65" s="1"/>
       <c r="BD65" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
         <v> -</v>
@@ -16004,13 +15884,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="BG65" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
-        <v>45815</v>
-      </c>
+      <c r="BG65" s="1"/>
       <c r="BH65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"07/06/2025")</f>
-        <v>07/06/2025</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No aplica")</f>
+        <v>No aplica</v>
       </c>
       <c r="BI65" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -16027,40 +15904,40 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4827401.0)</f>
-        <v>4827401</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1147792.0)</f>
+        <v>1147792</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000402495")</f>
-        <v>0000402495</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"2020002443")</f>
+        <v>2020002443</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARIANNA BELEN ")</f>
-        <v>ARIANNA BELEN </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DEBORHA VICTORIA")</f>
+        <v>DEBORHA VICTORIA</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SAENZ SOTOMAYOR")</f>
-        <v>SAENZ SOTOMAYOR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUEVA HUAPAYA")</f>
+        <v>CUEVA HUAPAYA</v>
       </c>
       <c r="F66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3247053E7)</f>
-        <v>73247053</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.5120389E7)</f>
+        <v>75120389</v>
       </c>
       <c r="G66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.43299925E8)</f>
-        <v>943299925</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.4417658E8)</f>
+        <v>944176580</v>
       </c>
       <c r="H66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"arisaenz27@gmail.com")</f>
-        <v>arisaenz27@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deborhacueva@gmail.com")</f>
+        <v>deborhacueva@gmail.com</v>
       </c>
       <c r="I66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura de Interiores")</f>
-        <v>Arquitectura de Interiores</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación y Publicidad Transmedia")</f>
+        <v>Comunicación y Publicidad Transmedia</v>
       </c>
       <c r="J66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
-        <v>Arquitecturas</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
+        <v>Comunicaciones</v>
       </c>
       <c r="K66" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
@@ -16095,41 +15972,38 @@
         <v>NINGUNO</v>
       </c>
       <c r="S66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
-        <v>RODRIGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="T66" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45797.0)</f>
-        <v>45797</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45799.0)</f>
+        <v>45799</v>
       </c>
       <c r="U66" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
         <v>CARGO</v>
       </c>
       <c r="V66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
-        <v>PAGO COMPLETO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
       </c>
       <c r="W66" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
       <c r="X66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"28/05/2025")</f>
+        <v>28/05/2025</v>
       </c>
       <c r="Y66" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45797.0)</f>
-        <v>45797</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45805.0)</f>
+        <v>45805</v>
       </c>
       <c r="Z66" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -16140,12 +16014,12 @@
         <v>0</v>
       </c>
       <c r="AE66" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1450.0)</f>
-        <v>1450</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1000.0)</f>
+        <v>1000</v>
       </c>
       <c r="AF66" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1450.0)</f>
-        <v>1450</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1000.0)</f>
+        <v>1000</v>
       </c>
       <c r="AG66" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -16160,22 +16034,28 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1018290.0)</f>
-        <v>1018290</v>
-      </c>
-      <c r="AK66" s="1"/>
-      <c r="AL66" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),775320.0)</f>
+        <v>775320</v>
+      </c>
+      <c r="AK66" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
+        <v>10 kms a 15 kms</v>
+      </c>
+      <c r="AL66" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
+        <v>01 Nacional</v>
+      </c>
       <c r="AM66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Universidad de Piura")</f>
-        <v>Universidad de Piura</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Instituto de Educación Superior Tecnológico Privado Toulouse Lautrec")</f>
+        <v>Instituto de Educación Superior Tecnológico Privado Toulouse Lautrec</v>
       </c>
       <c r="AN66" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
         <v> </v>
       </c>
       <c r="AO66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2020.0)</f>
-        <v>2020</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2019.0)</f>
+        <v>2019</v>
       </c>
       <c r="AP66" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -16186,20 +16066,20 @@
         <v>45775</v>
       </c>
       <c r="AR66" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45796.0)</f>
-        <v>45796</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45755.0)</f>
+        <v>45755</v>
       </c>
       <c r="AS66" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
-        <v>45778</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
+        <v>45748</v>
       </c>
       <c r="AT66" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
-        <v>45775</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
+        <v>45747</v>
       </c>
       <c r="AU66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
       </c>
       <c r="AV66" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
@@ -16218,16 +16098,16 @@
         <v>1</v>
       </c>
       <c r="AZ66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Andrea Araujo Antara")</f>
-        <v>Andrea Araujo Antara</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fiorella Lanegra")</f>
+        <v>Fiorella Lanegra</v>
       </c>
       <c r="BA66" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB66" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1450.0)</f>
-        <v>1450</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1000.0)</f>
+        <v>1000</v>
       </c>
       <c r="BC66" s="1"/>
       <c r="BD66" s="1" t="str">
@@ -16262,36 +16142,36 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1147792.0)</f>
-        <v>1147792</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5197916.0)</f>
+        <v>5197916</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"2020002443")</f>
-        <v>2020002443</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000426722")</f>
+        <v>0000426722</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DEBORHA VICTORIA")</f>
-        <v>DEBORHA VICTORIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JEAN PIERE ORLANDO ")</f>
+        <v>JEAN PIERE ORLANDO </v>
       </c>
       <c r="E67" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUEVA HUAPAYA")</f>
-        <v>CUEVA HUAPAYA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SALAS CAMACHO")</f>
+        <v>SALAS CAMACHO</v>
       </c>
       <c r="F67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.5120389E7)</f>
-        <v>75120389</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.117094E7)</f>
+        <v>71170940</v>
       </c>
       <c r="G67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.4417658E8)</f>
-        <v>944176580</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.17260697E8)</f>
+        <v>917260697</v>
       </c>
       <c r="H67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deborhacueva@gmail.com")</f>
-        <v>deborhacueva@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jean102111@gmail.com")</f>
+        <v>jean102111@gmail.com</v>
       </c>
       <c r="I67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación y Publicidad Transmedia")</f>
-        <v>Comunicación y Publicidad Transmedia</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
+        <v>Comunicación Audiovisual y Cine</v>
       </c>
       <c r="J67" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
@@ -16314,73 +16194,70 @@
         <v>Diurno</v>
       </c>
       <c r="O67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
-        <v>TRASLADO CON CONVA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO SIN CONVA")</f>
+        <v>TRASLADO SIN CONVA</v>
       </c>
       <c r="P67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
-        <v>ESCALA REGULAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
+        <v>BECA</v>
       </c>
       <c r="Q67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
-        <v>NINGUNO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE-TRASLADOS SIN CONVA")</f>
+        <v>BECA CARRERAS CORE-TRASLADOS SIN CONVA</v>
       </c>
       <c r="R67" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
         <v>NINGUNO</v>
       </c>
       <c r="S67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
+        <v>RODRIGO</v>
       </c>
       <c r="T67" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45799.0)</f>
-        <v>45799</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45800.0)</f>
+        <v>45800</v>
       </c>
       <c r="U67" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
         <v>CARGO</v>
       </c>
       <c r="V67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
       </c>
       <c r="W67" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
       <c r="X67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"28/05/2025")</f>
-        <v>28/05/2025</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="Y67" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45805.0)</f>
-        <v>45805</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45800.0)</f>
+        <v>45800</v>
       </c>
       <c r="Z67" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
       </c>
       <c r="AD67" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
       </c>
       <c r="AE67" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1000.0)</f>
-        <v>1000</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
       </c>
       <c r="AF67" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1000.0)</f>
-        <v>1000</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),950.0)</f>
+        <v>950</v>
       </c>
       <c r="AG67" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -16395,28 +16272,28 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),775320.0)</f>
-        <v>775320</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1074814.0)</f>
+        <v>1074814</v>
       </c>
       <c r="AK67" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
         <v>10 kms a 15 kms</v>
       </c>
       <c r="AL67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
-        <v>01 Nacional</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"03 101 a 200")</f>
+        <v>03 101 a 200</v>
       </c>
       <c r="AM67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Instituto de Educación Superior Tecnológico Privado Toulouse Lautrec")</f>
-        <v>Instituto de Educación Superior Tecnológico Privado Toulouse Lautrec</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Universidad Científica del Sur - Lima")</f>
+        <v>Universidad Científica del Sur - Lima</v>
       </c>
       <c r="AN67" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
         <v> </v>
       </c>
       <c r="AO67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2019.0)</f>
-        <v>2019</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
+        <v>2024</v>
       </c>
       <c r="AP67" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -16427,28 +16304,28 @@
         <v>45775</v>
       </c>
       <c r="AR67" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45755.0)</f>
-        <v>45755</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45792.0)</f>
+        <v>45792</v>
       </c>
       <c r="AS67" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
-        <v>45748</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
+        <v>45778</v>
       </c>
       <c r="AT67" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
-        <v>45747</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
+        <v>45775</v>
       </c>
       <c r="AU67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
       </c>
       <c r="AV67" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
         <v>DIGITAL</v>
       </c>
       <c r="AW67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FORMULARIO")</f>
-        <v>FORMULARIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
+        <v>BIDIRECCIONAL</v>
       </c>
       <c r="AX67" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
@@ -16467,10 +16344,13 @@
         <v>1</v>
       </c>
       <c r="BB67" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1000.0)</f>
-        <v>1000</v>
-      </c>
-      <c r="BC67" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),950.0)</f>
+        <v>950</v>
+      </c>
+      <c r="BC67" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
       <c r="BD67" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
         <v> -</v>
@@ -16480,13 +16360,16 @@
         <v>1</v>
       </c>
       <c r="BF67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG67" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG67" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
+        <v>45815</v>
+      </c>
       <c r="BH67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No aplica")</f>
-        <v>No aplica</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"07/06/2025")</f>
+        <v>07/06/2025</v>
       </c>
       <c r="BI67" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -16503,48 +16386,48 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5197916.0)</f>
-        <v>5197916</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3403003.0)</f>
+        <v>3403003</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000426722")</f>
-        <v>0000426722</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000426713")</f>
+        <v>0000426713</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JEAN PIERE ORLANDO ")</f>
-        <v>JEAN PIERE ORLANDO </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NASTIA CHELLSIE")</f>
+        <v>NASTIA CHELLSIE</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SALAS CAMACHO")</f>
-        <v>SALAS CAMACHO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PASTOR NOREÑA")</f>
+        <v>PASTOR NOREÑA</v>
       </c>
       <c r="F68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.117094E7)</f>
-        <v>71170940</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0730298E7)</f>
+        <v>70730298</v>
       </c>
       <c r="G68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.17260697E8)</f>
-        <v>917260697</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.46401465E8)</f>
+        <v>946401465</v>
       </c>
       <c r="H68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jean102111@gmail.com")</f>
-        <v>jean102111@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"npastornorena@gmail.com")</f>
+        <v>npastornorena@gmail.com</v>
       </c>
       <c r="I68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
-        <v>Comunicación Audiovisual y Cine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura")</f>
+        <v>Arquitectura</v>
       </c>
       <c r="J68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
-        <v>Comunicaciones</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
+        <v>Arquitecturas</v>
       </c>
       <c r="K68" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
         <v>Antigua</v>
       </c>
       <c r="L68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
-        <v>Admisión Extraordinaria (Traslados)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
+        <v>Admisión Ordinaria</v>
       </c>
       <c r="M68" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
@@ -16555,28 +16438,28 @@
         <v>Diurno</v>
       </c>
       <c r="O68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO SIN CONVA")</f>
-        <v>TRASLADO SIN CONVA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
       </c>
       <c r="P68" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
         <v>BECA</v>
       </c>
       <c r="Q68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE-TRASLADOS SIN CONVA")</f>
-        <v>BECA CARRERAS CORE-TRASLADOS SIN CONVA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE")</f>
+        <v>BECA CARRERAS CORE</v>
       </c>
       <c r="R68" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
         <v>NINGUNO</v>
       </c>
       <c r="S68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
-        <v>RODRIGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="T68" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45800.0)</f>
-        <v>45800</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45801.0)</f>
+        <v>45801</v>
       </c>
       <c r="U68" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
@@ -16595,33 +16478,30 @@
         <v>-</v>
       </c>
       <c r="Y68" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45800.0)</f>
-        <v>45800</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45801.0)</f>
+        <v>45801</v>
       </c>
       <c r="Z68" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="AD68" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
         <v>95</v>
       </c>
       <c r="AE68" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
-        <v>1050</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
+        <v>1350</v>
       </c>
       <c r="AF68" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),950.0)</f>
-        <v>950</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1150.0)</f>
+        <v>1150</v>
       </c>
       <c r="AG68" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -16636,24 +16516,24 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1074814.0)</f>
-        <v>1074814</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1311521.0)</f>
+        <v>1311521</v>
       </c>
       <c r="AK68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
-        <v>10 kms a 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5kms a 10 kms")</f>
+        <v>5kms a 10 kms</v>
       </c>
       <c r="AL68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"03 101 a 200")</f>
-        <v>03 101 a 200</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
+        <v>05 301 a 550</v>
       </c>
       <c r="AM68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Universidad Científica del Sur - Lima")</f>
-        <v>Universidad Científica del Sur - Lima</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="AN68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
-        <v> </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
       </c>
       <c r="AO68" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
@@ -16668,8 +16548,8 @@
         <v>45775</v>
       </c>
       <c r="AR68" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45792.0)</f>
-        <v>45792</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45797.0)</f>
+        <v>45797</v>
       </c>
       <c r="AS68" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -16680,36 +16560,36 @@
         <v>45775</v>
       </c>
       <c r="AU68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
+        <v>4</v>
       </c>
       <c r="AV68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
-        <v>DIGITAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
       </c>
       <c r="AW68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
-        <v>BIDIRECCIONAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
       </c>
       <c r="AX68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
-        <v>ORGANICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
       </c>
       <c r="AY68" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fiorella Lanegra")</f>
-        <v>Fiorella Lanegra</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Juan Manuel Rodríguez")</f>
+        <v>Juan Manuel Rodríguez</v>
       </c>
       <c r="BA68" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB68" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),950.0)</f>
-        <v>950</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1150.0)</f>
+        <v>1150</v>
       </c>
       <c r="BC68" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -16750,40 +16630,40 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3403003.0)</f>
-        <v>3403003</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5179581.0)</f>
+        <v>5179581</v>
       </c>
       <c r="C69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000426713")</f>
-        <v>0000426713</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000426904")</f>
+        <v>0000426904</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NASTIA CHELLSIE")</f>
-        <v>NASTIA CHELLSIE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PIERO YERAY")</f>
+        <v>PIERO YERAY</v>
       </c>
       <c r="E69" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PASTOR NOREÑA")</f>
-        <v>PASTOR NOREÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VELIZ MENDOZA")</f>
+        <v>VELIZ MENDOZA</v>
       </c>
       <c r="F69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0730298E7)</f>
-        <v>70730298</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1207319E7)</f>
+        <v>61207319</v>
       </c>
       <c r="G69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.46401465E8)</f>
-        <v>946401465</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.57043487E8)</f>
+        <v>957043487</v>
       </c>
       <c r="H69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"npastornorena@gmail.com")</f>
-        <v>npastornorena@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pieroyeray@gmail.com")</f>
+        <v>pieroyeray@gmail.com</v>
       </c>
       <c r="I69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura")</f>
-        <v>Arquitectura</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
+        <v>Comunicación Audiovisual y Cine</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
-        <v>Arquitecturas</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
+        <v>Comunicaciones</v>
       </c>
       <c r="K69" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
@@ -16818,12 +16698,12 @@
         <v>NINGUNO</v>
       </c>
       <c r="S69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
+        <v>RODRIGO</v>
       </c>
       <c r="T69" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45801.0)</f>
-        <v>45801</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
       </c>
       <c r="U69" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
@@ -16842,33 +16722,30 @@
         <v>-</v>
       </c>
       <c r="Y69" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45801.0)</f>
-        <v>45801</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
       </c>
       <c r="Z69" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
       </c>
       <c r="AD69" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
         <v>95</v>
       </c>
       <c r="AE69" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
-        <v>1350</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
+        <v>1250</v>
       </c>
       <c r="AF69" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1150.0)</f>
-        <v>1150</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
       </c>
       <c r="AG69" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -16883,16 +16760,16 @@
         <v>0</v>
       </c>
       <c r="AJ69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1311521.0)</f>
-        <v>1311521</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449553.0)</f>
+        <v>449553</v>
       </c>
       <c r="AK69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5kms a 10 kms")</f>
-        <v>5kms a 10 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
+        <v>10 kms a 15 kms</v>
       </c>
       <c r="AL69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
-        <v>05 301 a 550</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"06 551 a 800")</f>
+        <v>06 551 a 800</v>
       </c>
       <c r="AM69" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
@@ -16915,8 +16792,8 @@
         <v>45775</v>
       </c>
       <c r="AR69" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45797.0)</f>
-        <v>45797</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45779.0)</f>
+        <v>45779</v>
       </c>
       <c r="AS69" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -16927,8 +16804,8 @@
         <v>45775</v>
       </c>
       <c r="AU69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
-        <v>4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
       </c>
       <c r="AV69" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
@@ -16947,16 +16824,16 @@
         <v>1</v>
       </c>
       <c r="AZ69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Juan Manuel Rodríguez")</f>
-        <v>Juan Manuel Rodríguez</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fiorella Lanegra")</f>
+        <v>Fiorella Lanegra</v>
       </c>
       <c r="BA69" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB69" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1150.0)</f>
-        <v>1150</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
       </c>
       <c r="BC69" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -16971,8 +16848,8 @@
         <v>1</v>
       </c>
       <c r="BF69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="BG69" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
@@ -16997,48 +16874,48 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5179581.0)</f>
-        <v>5179581</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1025852.0)</f>
+        <v>1025852</v>
       </c>
       <c r="C70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000426904")</f>
-        <v>0000426904</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427019")</f>
+        <v>0000427019</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PIERO YERAY")</f>
-        <v>PIERO YERAY</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GONZALO AARON ")</f>
+        <v>GONZALO AARON </v>
       </c>
       <c r="E70" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VELIZ MENDOZA")</f>
-        <v>VELIZ MENDOZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"QUEVEDO MESIA")</f>
+        <v>QUEVEDO MESIA</v>
       </c>
       <c r="F70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1207319E7)</f>
-        <v>61207319</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3124994E7)</f>
+        <v>73124994</v>
       </c>
       <c r="G70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.29434237E8)</f>
-        <v>929434237</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.65918127E8)</f>
+        <v>965918127</v>
       </c>
       <c r="H70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pieroyeray@gmail.com")</f>
-        <v>pieroyeray@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mesiagonzalo741@gmail.com")</f>
+        <v>mesiagonzalo741@gmail.com</v>
       </c>
       <c r="I70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
-        <v>Comunicación Audiovisual y Cine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
+        <v>Diseño Gráfico Publicitario</v>
       </c>
       <c r="J70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
-        <v>Comunicaciones</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño")</f>
+        <v>Diseño</v>
       </c>
       <c r="K70" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
         <v>Antigua</v>
       </c>
       <c r="L70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
-        <v>Admisión Ordinaria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
+        <v>Admisión Extraordinaria (Traslados)</v>
       </c>
       <c r="M70" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
@@ -17049,28 +16926,28 @@
         <v>Diurno</v>
       </c>
       <c r="O70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
+        <v>TRASLADO CON CONVA</v>
       </c>
       <c r="P70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
-        <v>BECA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
       </c>
       <c r="Q70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE")</f>
-        <v>BECA CARRERAS CORE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
       </c>
       <c r="R70" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
         <v>NINGUNO</v>
       </c>
       <c r="S70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
-        <v>RODRIGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
+        <v>FABIOLA</v>
       </c>
       <c r="T70" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
-        <v>45803</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45804.0)</f>
+        <v>45804</v>
       </c>
       <c r="U70" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
@@ -17089,33 +16966,30 @@
         <v>-</v>
       </c>
       <c r="Y70" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
-        <v>45803</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45804.0)</f>
+        <v>45804</v>
       </c>
       <c r="Z70" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AD70" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
-        <v>95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AE70" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
-        <v>1250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1100.0)</f>
+        <v>1100</v>
       </c>
       <c r="AF70" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
-        <v>1050</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1100.0)</f>
+        <v>1100</v>
       </c>
       <c r="AG70" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -17130,28 +17004,28 @@
         <v>0</v>
       </c>
       <c r="AJ70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449553.0)</f>
-        <v>449553</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1355478.0)</f>
+        <v>1355478</v>
       </c>
       <c r="AK70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
-        <v>10 kms a 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Menos de 5 kms")</f>
+        <v>Menos de 5 kms</v>
       </c>
       <c r="AL70" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"06 551 a 800")</f>
         <v>06 551 a 800</v>
       </c>
       <c r="AM70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Universidad San Martin de Porres")</f>
+        <v>Universidad San Martin de Porres</v>
       </c>
       <c r="AN70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
+        <v> </v>
       </c>
       <c r="AO70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
-        <v>2024</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2019.0)</f>
+        <v>2019</v>
       </c>
       <c r="AP70" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -17162,8 +17036,8 @@
         <v>45775</v>
       </c>
       <c r="AR70" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45779.0)</f>
-        <v>45779</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
       </c>
       <c r="AS70" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -17174,20 +17048,20 @@
         <v>45775</v>
       </c>
       <c r="AU70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="AV70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
-        <v>OUTBOUND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
+        <v>TRADICIONAL</v>
       </c>
       <c r="AW70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
-        <v>OUTBOUND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"INBOUND")</f>
+        <v>INBOUND</v>
       </c>
       <c r="AX70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
-        <v>OUTBOUND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"INBOUND")</f>
+        <v>INBOUND</v>
       </c>
       <c r="AY70" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -17202,13 +17076,10 @@
         <v>1</v>
       </c>
       <c r="BB70" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
-        <v>1050</v>
-      </c>
-      <c r="BC70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1100.0)</f>
+        <v>1100</v>
+      </c>
+      <c r="BC70" s="1"/>
       <c r="BD70" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
         <v> -</v>
@@ -17221,13 +17092,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="BG70" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
-        <v>45815</v>
-      </c>
+      <c r="BG70" s="1"/>
       <c r="BH70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"07/06/2025")</f>
-        <v>07/06/2025</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No aplica")</f>
+        <v>No aplica</v>
       </c>
       <c r="BI70" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -17244,40 +17112,40 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1025852.0)</f>
-        <v>1025852</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),671687.0)</f>
+        <v>671687</v>
       </c>
       <c r="C71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427019")</f>
-        <v>0000427019</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"2016004992")</f>
+        <v>2016004992</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GONZALO AARON ")</f>
-        <v>GONZALO AARON </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS ANTONIO ")</f>
+        <v>LUIS ANTONIO </v>
       </c>
       <c r="E71" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"QUEVEDO MESIA")</f>
-        <v>QUEVEDO MESIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SAUÑE LUDEÑA")</f>
+        <v>SAUÑE LUDEÑA</v>
       </c>
       <c r="F71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3124994E7)</f>
-        <v>73124994</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3796776E7)</f>
+        <v>73796776</v>
       </c>
       <c r="G71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.65918127E8)</f>
-        <v>965918127</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.22568973E8)</f>
+        <v>922568973</v>
       </c>
       <c r="H71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mesiagonzalo741@gmail.com")</f>
-        <v>mesiagonzalo741@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"luis.saune.ludena@gmail.com")</f>
+        <v>luis.saune.ludena@gmail.com</v>
       </c>
       <c r="I71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
-        <v>Diseño Gráfico Publicitario</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura")</f>
+        <v>Arquitectura</v>
       </c>
       <c r="J71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño")</f>
-        <v>Diseño</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
+        <v>Arquitecturas</v>
       </c>
       <c r="K71" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
@@ -17320,33 +17188,30 @@
         <v>45804</v>
       </c>
       <c r="U71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
-        <v>CARGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago Link")</f>
+        <v>Pago Link</v>
       </c>
       <c r="V71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
-        <v>PAGO COMPLETO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
       </c>
       <c r="W71" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
       <c r="X71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"31/05/2025")</f>
+        <v>31/05/2025</v>
       </c>
       <c r="Y71" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45804.0)</f>
-        <v>45804</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45807.0)</f>
+        <v>45807</v>
       </c>
       <c r="Z71" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -17357,12 +17222,12 @@
         <v>0</v>
       </c>
       <c r="AE71" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1100.0)</f>
-        <v>1100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1000.0)</f>
+        <v>1000</v>
       </c>
       <c r="AF71" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1100.0)</f>
-        <v>1100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1000.0)</f>
+        <v>1000</v>
       </c>
       <c r="AG71" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -17377,28 +17242,28 @@
         <v>0</v>
       </c>
       <c r="AJ71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1355478.0)</f>
-        <v>1355478</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),774521.0)</f>
+        <v>774521</v>
       </c>
       <c r="AK71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Menos de 5 kms")</f>
-        <v>Menos de 5 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
+        <v>10 kms a 15 kms</v>
       </c>
       <c r="AL71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"06 551 a 800")</f>
-        <v>06 551 a 800</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
+        <v>05 301 a 550</v>
       </c>
       <c r="AM71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Universidad San Martin de Porres")</f>
-        <v>Universidad San Martin de Porres</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Instituto de Educación Superior Tecnológico Privado Toulouse Lautrec")</f>
+        <v>Instituto de Educación Superior Tecnológico Privado Toulouse Lautrec</v>
       </c>
       <c r="AN71" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
         <v> </v>
       </c>
       <c r="AO71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2019.0)</f>
-        <v>2019</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2022.0)</f>
+        <v>2022</v>
       </c>
       <c r="AP71" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -17409,8 +17274,8 @@
         <v>45775</v>
       </c>
       <c r="AR71" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
-        <v>45803</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45795.0)</f>
+        <v>45795</v>
       </c>
       <c r="AS71" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -17421,36 +17286,36 @@
         <v>45775</v>
       </c>
       <c r="AU71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
+        <v>12</v>
       </c>
       <c r="AV71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
-        <v>TRADICIONAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
+        <v>DIGITAL</v>
       </c>
       <c r="AW71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"INBOUND")</f>
-        <v>INBOUND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
+        <v>BIDIRECCIONAL</v>
       </c>
       <c r="AX71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"INBOUND")</f>
-        <v>INBOUND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
+        <v>ORGANICO</v>
       </c>
       <c r="AY71" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fiorella Lanegra")</f>
-        <v>Fiorella Lanegra</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Juan Manuel Rodríguez")</f>
+        <v>Juan Manuel Rodríguez</v>
       </c>
       <c r="BA71" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB71" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1100.0)</f>
-        <v>1100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1000.0)</f>
+        <v>1000</v>
       </c>
       <c r="BC71" s="1"/>
       <c r="BD71" s="1" t="str">
@@ -17485,40 +17350,40 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),671687.0)</f>
-        <v>671687</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1578825.0)</f>
+        <v>1578825</v>
       </c>
       <c r="C72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"2016004992")</f>
-        <v>2016004992</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000025424")</f>
+        <v>0000025424</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS ANTONIO ")</f>
-        <v>LUIS ANTONIO </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALVARO RUBEN RAUL ")</f>
+        <v>ALVARO RUBEN RAUL </v>
       </c>
       <c r="E72" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SAUÑE LUDEÑA")</f>
-        <v>SAUÑE LUDEÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEREZ RAMOS")</f>
+        <v>PEREZ RAMOS</v>
       </c>
       <c r="F72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3796776E7)</f>
-        <v>73796776</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3367148E7)</f>
+        <v>73367148</v>
       </c>
       <c r="G72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.22568973E8)</f>
-        <v>922568973</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.01689104E8)</f>
+        <v>901689104</v>
       </c>
       <c r="H72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"luis.saune.ludena@gmail.com")</f>
-        <v>luis.saune.ludena@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alvaroperezramos2004@gmail.com")</f>
+        <v>Alvaroperezramos2004@gmail.com</v>
       </c>
       <c r="I72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura")</f>
-        <v>Arquitectura</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
+        <v>Comunicación Audiovisual y Cine</v>
       </c>
       <c r="J72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
-        <v>Arquitecturas</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
+        <v>Comunicaciones</v>
       </c>
       <c r="K72" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
@@ -17537,12 +17402,12 @@
         <v>Diurno</v>
       </c>
       <c r="O72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
-        <v>TRASLADO CON CONVA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO SIN CONVA")</f>
+        <v>TRASLADO SIN CONVA</v>
       </c>
       <c r="P72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
-        <v>ESCALA REGULAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECA")</f>
+        <v>RECA</v>
       </c>
       <c r="Q72" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
@@ -17553,41 +17418,38 @@
         <v>NINGUNO</v>
       </c>
       <c r="S72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
-        <v>FABIOLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
+        <v>RODRIGO</v>
       </c>
       <c r="T72" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45804.0)</f>
-        <v>45804</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45805.0)</f>
+        <v>45805</v>
       </c>
       <c r="U72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago Link")</f>
-        <v>Pago Link</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
+        <v>CARGO</v>
       </c>
       <c r="V72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
       </c>
       <c r="W72" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
       <c r="X72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"31/05/2025")</f>
-        <v>31/05/2025</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="Y72" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45807.0)</f>
-        <v>45807</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45805.0)</f>
+        <v>45805</v>
       </c>
       <c r="Z72" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -17598,12 +17460,12 @@
         <v>0</v>
       </c>
       <c r="AE72" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1000.0)</f>
-        <v>1000</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
       </c>
       <c r="AF72" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1000.0)</f>
-        <v>1000</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
       </c>
       <c r="AG72" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -17618,21 +17480,18 @@
         <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),774521.0)</f>
-        <v>774521</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),773879.0)</f>
+        <v>773879</v>
       </c>
       <c r="AK72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
-        <v>10 kms a 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
+        <v>Más de 15 kms</v>
       </c>
       <c r="AL72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
-        <v>05 301 a 550</v>
-      </c>
-      <c r="AM72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Instituto de Educación Superior Tecnológico Privado Toulouse Lautrec")</f>
-        <v>Instituto de Educación Superior Tecnológico Privado Toulouse Lautrec</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"04 200 a 300")</f>
+        <v>04 200 a 300</v>
+      </c>
+      <c r="AM72" s="1"/>
       <c r="AN72" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
         <v> </v>
@@ -17650,20 +17509,20 @@
         <v>45775</v>
       </c>
       <c r="AR72" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45795.0)</f>
-        <v>45795</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45766.0)</f>
+        <v>45766</v>
       </c>
       <c r="AS72" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
-        <v>45778</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
+        <v>45748</v>
       </c>
       <c r="AT72" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
-        <v>45775</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
+        <v>45747</v>
       </c>
       <c r="AU72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
-        <v>12</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
+        <v>39</v>
       </c>
       <c r="AV72" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
@@ -17674,26 +17533,29 @@
         <v>BIDIRECCIONAL</v>
       </c>
       <c r="AX72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
-        <v>ORGANICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEARCH MARCA")</f>
+        <v>SEARCH MARCA</v>
       </c>
       <c r="AY72" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Juan Manuel Rodríguez")</f>
-        <v>Juan Manuel Rodríguez</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Andrea Araujo Antara")</f>
+        <v>Andrea Araujo Antara</v>
       </c>
       <c r="BA72" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB72" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1000.0)</f>
-        <v>1000</v>
-      </c>
-      <c r="BC72" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
+      </c>
+      <c r="BC72" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
       <c r="BD72" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
         <v> -</v>
@@ -17703,13 +17565,16 @@
         <v>1</v>
       </c>
       <c r="BF72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG72" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG72" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45819.0)</f>
+        <v>45819</v>
+      </c>
       <c r="BH72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No aplica")</f>
-        <v>No aplica</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11/06/2025")</f>
+        <v>11/06/2025</v>
       </c>
       <c r="BI72" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -17726,32 +17591,32 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1578825.0)</f>
-        <v>1578825</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4991146.0)</f>
+        <v>4991146</v>
       </c>
       <c r="C73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000025424")</f>
-        <v>0000025424</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427170")</f>
+        <v>0000427170</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALVARO RUBEN RAUL ")</f>
-        <v>ALVARO RUBEN RAUL </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CRISTIAN MANUEL")</f>
+        <v>CRISTIAN MANUEL</v>
       </c>
       <c r="E73" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEREZ RAMOS")</f>
-        <v>PEREZ RAMOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGUEZ LARREA")</f>
+        <v>RODRIGUEZ LARREA</v>
       </c>
       <c r="F73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3367148E7)</f>
-        <v>73367148</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0860131E7)</f>
+        <v>60860131</v>
       </c>
       <c r="G73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.25991387E8)</f>
-        <v>925991387</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.99905918E8)</f>
+        <v>999905918</v>
       </c>
       <c r="H73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alvaroperezramos2004@gmail.com")</f>
-        <v>Alvaroperezramos2004@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cristian126.2.03@gmail.com")</f>
+        <v>cristian126.2.03@gmail.com</v>
       </c>
       <c r="I73" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
@@ -17786,16 +17651,16 @@
         <v>RECA</v>
       </c>
       <c r="Q73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
-        <v>NINGUNO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECATEGORIZACIÓN")</f>
+        <v>RECATEGORIZACIÓN</v>
       </c>
       <c r="R73" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
         <v>NINGUNO</v>
       </c>
       <c r="S73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
-        <v>RODRIGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
+        <v>FABIOLA</v>
       </c>
       <c r="T73" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45805.0)</f>
@@ -17825,10 +17690,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -17859,16 +17721,16 @@
         <v>0</v>
       </c>
       <c r="AJ73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),773879.0)</f>
-        <v>773879</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1323856.0)</f>
+        <v>1323856</v>
       </c>
       <c r="AK73" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
         <v>Más de 15 kms</v>
       </c>
       <c r="AL73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"04 200 a 300")</f>
-        <v>04 200 a 300</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
+        <v>05 301 a 550</v>
       </c>
       <c r="AM73" s="1"/>
       <c r="AN73" s="1" t="str">
@@ -17876,8 +17738,8 @@
         <v> </v>
       </c>
       <c r="AO73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2022.0)</f>
-        <v>2022</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2023.0)</f>
+        <v>2023</v>
       </c>
       <c r="AP73" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -17888,20 +17750,20 @@
         <v>45775</v>
       </c>
       <c r="AR73" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45766.0)</f>
-        <v>45766</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45805.0)</f>
+        <v>45805</v>
       </c>
       <c r="AS73" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
-        <v>45748</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
+        <v>45778</v>
       </c>
       <c r="AT73" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
-        <v>45747</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
+        <v>45775</v>
       </c>
       <c r="AU73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
-        <v>39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AV73" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
@@ -17912,16 +17774,16 @@
         <v>BIDIRECCIONAL</v>
       </c>
       <c r="AX73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEARCH MARCA")</f>
-        <v>SEARCH MARCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
+        <v>ORGANICO</v>
       </c>
       <c r="AY73" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Andrea Araujo Antara")</f>
-        <v>Andrea Araujo Antara</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Angelica Iparraguirre")</f>
+        <v>Angelica Iparraguirre</v>
       </c>
       <c r="BA73" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -17944,8 +17806,8 @@
         <v>1</v>
       </c>
       <c r="BF73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="BG73" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
@@ -17970,40 +17832,40 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4991146.0)</f>
-        <v>4991146</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),181466.0)</f>
+        <v>181466</v>
       </c>
       <c r="C74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427170")</f>
-        <v>0000427170</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000026016")</f>
+        <v>0000026016</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CRISTIAN MANUEL")</f>
-        <v>CRISTIAN MANUEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MERY ELIZABETH")</f>
+        <v>MERY ELIZABETH</v>
       </c>
       <c r="E74" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGUEZ LARREA")</f>
-        <v>RODRIGUEZ LARREA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CANTO GALICIA")</f>
+        <v>CANTO GALICIA</v>
       </c>
       <c r="F74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0860131E7)</f>
-        <v>60860131</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.6914091E7)</f>
+        <v>46914091</v>
       </c>
       <c r="G74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.99905918E8)</f>
-        <v>999905918</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.74712397E8)</f>
+        <v>974712397</v>
       </c>
       <c r="H74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cristian126.2.03@gmail.com")</f>
-        <v>cristian126.2.03@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mcantogalicia@gmail.com")</f>
+        <v>mcantogalicia@gmail.com</v>
       </c>
       <c r="I74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
-        <v>Comunicación Audiovisual y Cine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
+        <v>Diseño Gráfico Publicitario</v>
       </c>
       <c r="J74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
-        <v>Comunicaciones</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño")</f>
+        <v>Diseño</v>
       </c>
       <c r="K74" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
@@ -18022,8 +17884,8 @@
         <v>Diurno</v>
       </c>
       <c r="O74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO SIN CONVA")</f>
-        <v>TRASLADO SIN CONVA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
+        <v>TRASLADO CON CONVA</v>
       </c>
       <c r="P74" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECA")</f>
@@ -18038,12 +17900,12 @@
         <v>NINGUNO</v>
       </c>
       <c r="S74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
-        <v>FABIOLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="T74" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45805.0)</f>
-        <v>45805</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45807.0)</f>
+        <v>45807</v>
       </c>
       <c r="U74" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
@@ -18062,17 +17924,14 @@
         <v>-</v>
       </c>
       <c r="Y74" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45805.0)</f>
-        <v>45805</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45807.0)</f>
+        <v>45807</v>
       </c>
       <c r="Z74" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -18083,12 +17942,12 @@
         <v>0</v>
       </c>
       <c r="AE74" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
-        <v>1050</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
       </c>
       <c r="AF74" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
-        <v>1050</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
       </c>
       <c r="AG74" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -18103,25 +17962,28 @@
         <v>0</v>
       </c>
       <c r="AJ74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1323856.0)</f>
-        <v>1323856</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1072727.0)</f>
+        <v>1072727</v>
       </c>
       <c r="AK74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
-        <v>Más de 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
+        <v>10 kms a 15 kms</v>
       </c>
       <c r="AL74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
-        <v>05 301 a 550</v>
-      </c>
-      <c r="AM74" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
+        <v>01 Nacional</v>
+      </c>
+      <c r="AM74" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SISE")</f>
+        <v>SISE</v>
+      </c>
       <c r="AN74" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
         <v> </v>
       </c>
       <c r="AO74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2023.0)</f>
-        <v>2023</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2007.0)</f>
+        <v>2007</v>
       </c>
       <c r="AP74" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -18132,8 +17994,8 @@
         <v>45775</v>
       </c>
       <c r="AR74" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45805.0)</f>
-        <v>45805</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45802.0)</f>
+        <v>45802</v>
       </c>
       <c r="AS74" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -18144,41 +18006,38 @@
         <v>45775</v>
       </c>
       <c r="AU74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
+        <v>5</v>
       </c>
       <c r="AV74" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
         <v>DIGITAL</v>
       </c>
       <c r="AW74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
-        <v>BIDIRECCIONAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FORMULARIO")</f>
+        <v>FORMULARIO</v>
       </c>
       <c r="AX74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
-        <v>ORGANICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO SUFICIENCIA")</f>
+        <v>NO SUFICIENCIA</v>
       </c>
       <c r="AY74" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Angelica Iparraguirre")</f>
-        <v>Angelica Iparraguirre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Rosa Ugarte")</f>
+        <v>Rosa Ugarte</v>
       </c>
       <c r="BA74" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB74" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
-        <v>1050</v>
-      </c>
-      <c r="BC74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
+      </c>
+      <c r="BC74" s="1"/>
       <c r="BD74" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
         <v> -</v>
@@ -18191,13 +18050,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="BG74" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
-        <v>45815</v>
-      </c>
+      <c r="BG74" s="1"/>
       <c r="BH74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"07/06/2025")</f>
-        <v>07/06/2025</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No aplica")</f>
+        <v>No aplica</v>
       </c>
       <c r="BI74" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -18214,68 +18070,68 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),181466.0)</f>
-        <v>181466</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5221256.0)</f>
+        <v>5221256</v>
       </c>
       <c r="C75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000026016")</f>
-        <v>0000026016</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"2013001836")</f>
+        <v>2013001836</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MERY ELIZABETH")</f>
-        <v>MERY ELIZABETH</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HANS ANTONIO")</f>
+        <v>HANS ANTONIO</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CANTO GALICIA")</f>
-        <v>CANTO GALICIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"THOL HUAMAN")</f>
+        <v>THOL HUAMAN</v>
       </c>
       <c r="F75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.6914091E7)</f>
-        <v>46914091</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.709832E7)</f>
+        <v>47098320</v>
       </c>
       <c r="G75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.74712397E8)</f>
-        <v>974712397</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.52870667E8)</f>
+        <v>952870667</v>
       </c>
       <c r="H75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mcantogalicia@gmail.com")</f>
-        <v>mcantogalicia@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thol.Hans@gmail.com")</f>
+        <v>Thol.Hans@gmail.com</v>
       </c>
       <c r="I75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
-        <v>Diseño Gráfico Publicitario</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Marketing")</f>
+        <v>Administración y Marketing</v>
       </c>
       <c r="J75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño")</f>
-        <v>Diseño</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Negocios")</f>
+        <v>Negocios</v>
       </c>
       <c r="K75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
-        <v>Antigua</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
+        <v>Nueva</v>
       </c>
       <c r="L75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
-        <v>Admisión Extraordinaria (Traslados)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
+        <v>Admisión Ordinaria</v>
       </c>
       <c r="M75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
-        <v>Semi-presencial</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Virtual")</f>
+        <v>Virtual</v>
       </c>
       <c r="N75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
-        <v>Diurno</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nocturno - A distancia")</f>
+        <v>Nocturno - A distancia</v>
       </c>
       <c r="O75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
-        <v>TRASLADO CON CONVA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
       </c>
       <c r="P75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECA")</f>
-        <v>RECA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
       </c>
       <c r="Q75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECATEGORIZACIÓN")</f>
-        <v>RECATEGORIZACIÓN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
       </c>
       <c r="R75" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
@@ -18286,37 +18142,31 @@
         <v>-</v>
       </c>
       <c r="T75" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45807.0)</f>
-        <v>45807</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45808.0)</f>
+        <v>45808</v>
       </c>
       <c r="U75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
-        <v>CARGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago Link")</f>
+        <v>Pago Link</v>
       </c>
       <c r="V75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
-        <v>PAGO COMPLETO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
       </c>
       <c r="W75" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
+        <v>375</v>
       </c>
       <c r="X75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="Y75" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45807.0)</f>
-        <v>45807</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"13/06/2025")</f>
+        <v>13/06/2025</v>
+      </c>
+      <c r="Y75" s="1"/>
       <c r="Z75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
-        <v>PAGO COMPLETO</v>
-      </c>
-      <c r="AA75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
+      </c>
+      <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -18327,12 +18177,12 @@
         <v>0</v>
       </c>
       <c r="AE75" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
+        <v>750</v>
       </c>
       <c r="AF75" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
+        <v>750</v>
       </c>
       <c r="AG75" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -18347,28 +18197,28 @@
         <v>0</v>
       </c>
       <c r="AJ75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1072727.0)</f>
-        <v>1072727</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1234384.0)</f>
+        <v>1234384</v>
       </c>
       <c r="AK75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
-        <v>10 kms a 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
+        <v>Más de 15 kms</v>
       </c>
       <c r="AL75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
-        <v>01 Nacional</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"08 901 a 1,299")</f>
+        <v>08 901 a 1,299</v>
       </c>
       <c r="AM75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SISE")</f>
-        <v>SISE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="AN75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
-        <v> </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
       </c>
       <c r="AO75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2007.0)</f>
-        <v>2007</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2014.0)</f>
+        <v>2014</v>
       </c>
       <c r="AP75" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -18379,8 +18229,8 @@
         <v>45775</v>
       </c>
       <c r="AR75" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45802.0)</f>
-        <v>45802</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45801.0)</f>
+        <v>45801</v>
       </c>
       <c r="AS75" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -18391,8 +18241,8 @@
         <v>45775</v>
       </c>
       <c r="AU75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
-        <v>5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
+        <v>7</v>
       </c>
       <c r="AV75" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
@@ -18415,31 +18265,31 @@
         <v>Rosa Ugarte</v>
       </c>
       <c r="BA75" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.5)</f>
+        <v>0.5</v>
       </c>
       <c r="BB75" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
-      </c>
-      <c r="BC75" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
+        <v>750</v>
+      </c>
+      <c r="BC75" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="BD75" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
         <v> -</v>
       </c>
       <c r="BE75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="BF75" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
       <c r="BG75" s="1"/>
-      <c r="BH75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No aplica")</f>
-        <v>No aplica</v>
-      </c>
+      <c r="BH75" s="1"/>
       <c r="BI75" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
@@ -18455,56 +18305,56 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5221256.0)</f>
-        <v>5221256</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3053351.0)</f>
+        <v>3053351</v>
       </c>
       <c r="C76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"2013001836")</f>
-        <v>2013001836</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427542")</f>
+        <v>0000427542</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HANS ANTONIO")</f>
-        <v>HANS ANTONIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SHIRLEI LISET ")</f>
+        <v>SHIRLEI LISET </v>
       </c>
       <c r="E76" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"THOL HUAMAN")</f>
-        <v>THOL HUAMAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AREVALO DIAZ")</f>
+        <v>AREVALO DIAZ</v>
       </c>
       <c r="F76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.709832E7)</f>
-        <v>47098320</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1905873E7)</f>
+        <v>71905873</v>
       </c>
       <c r="G76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.52870667E8)</f>
-        <v>952870667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.02396153E8)</f>
+        <v>902396153</v>
       </c>
       <c r="H76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thol.Hans@gmail.com")</f>
-        <v>Thol.Hans@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Shirleyadiaz03@gmail.com")</f>
+        <v>Shirleyadiaz03@gmail.com</v>
       </c>
       <c r="I76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Marketing")</f>
-        <v>Administración y Marketing</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
+        <v>Comunicación Audiovisual y Cine</v>
       </c>
       <c r="J76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Negocios")</f>
-        <v>Negocios</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
+        <v>Comunicaciones</v>
       </c>
       <c r="K76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
-        <v>Nueva</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
+        <v>Antigua</v>
       </c>
       <c r="L76" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
         <v>Admisión Ordinaria</v>
       </c>
       <c r="M76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Virtual")</f>
-        <v>Virtual</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
+        <v>Semi-presencial</v>
       </c>
       <c r="N76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nocturno - A distancia")</f>
-        <v>Nocturno - A distancia</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
+        <v>Diurno</v>
       </c>
       <c r="O76" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
@@ -18523,54 +18373,54 @@
         <v>NINGUNO</v>
       </c>
       <c r="S76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEBASTIAN")</f>
+        <v>SEBASTIAN</v>
       </c>
       <c r="T76" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45808.0)</f>
         <v>45808</v>
       </c>
       <c r="U76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago Link")</f>
-        <v>Pago Link</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
+        <v>CARGO</v>
       </c>
       <c r="V76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
       </c>
       <c r="W76" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
-        <v>375</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="X76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"13/06/2025")</f>
-        <v>13/06/2025</v>
-      </c>
-      <c r="Y76" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Y76" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45808.0)</f>
+        <v>45808</v>
+      </c>
       <c r="Z76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
-      </c>
-      <c r="AA76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
+      <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
       </c>
       <c r="AD76" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
       </c>
       <c r="AE76" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
-        <v>750</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
+        <v>1200</v>
       </c>
       <c r="AF76" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
-        <v>750</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
+        <v>1200</v>
       </c>
       <c r="AG76" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -18585,16 +18435,16 @@
         <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1234384.0)</f>
-        <v>1234384</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),583088.0)</f>
+        <v>583088</v>
       </c>
       <c r="AK76" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
         <v>Más de 15 kms</v>
       </c>
       <c r="AL76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"08 901 a 1,299")</f>
-        <v>08 901 a 1,299</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
+        <v>01 Nacional</v>
       </c>
       <c r="AM76" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
@@ -18605,8 +18455,8 @@
         <v> -</v>
       </c>
       <c r="AO76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2014.0)</f>
-        <v>2014</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2023.0)</f>
+        <v>2023</v>
       </c>
       <c r="AP76" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -18617,8 +18467,8 @@
         <v>45775</v>
       </c>
       <c r="AR76" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45801.0)</f>
-        <v>45801</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45782.0)</f>
+        <v>45782</v>
       </c>
       <c r="AS76" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -18629,36 +18479,36 @@
         <v>45775</v>
       </c>
       <c r="AU76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
-        <v>7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
+        <v>26</v>
       </c>
       <c r="AV76" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
         <v>DIGITAL</v>
       </c>
       <c r="AW76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FORMULARIO")</f>
-        <v>FORMULARIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
+        <v>BIDIRECCIONAL</v>
       </c>
       <c r="AX76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO SUFICIENCIA")</f>
-        <v>NO SUFICIENCIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEARCH MARCA")</f>
+        <v>SEARCH MARCA</v>
       </c>
       <c r="AY76" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Rosa Ugarte")</f>
-        <v>Rosa Ugarte</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Andrea Araujo Antara")</f>
+        <v>Andrea Araujo Antara</v>
       </c>
       <c r="BA76" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.5)</f>
-        <v>0.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BB76" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
-        <v>750</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
+        <v>1200</v>
       </c>
       <c r="BC76" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -18669,14 +18519,17 @@
         <v> -</v>
       </c>
       <c r="BE76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF76" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="BG76" s="1"/>
+      <c r="BG76" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
+        <v>45815</v>
+      </c>
       <c r="BH76" s="1"/>
       <c r="BI76" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -18693,48 +18546,48 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3053351.0)</f>
-        <v>3053351</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5244977.0)</f>
+        <v>5244977</v>
       </c>
       <c r="C77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427542")</f>
-        <v>0000427542</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000428174")</f>
+        <v>0000428174</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SHIRLEI LISET ")</f>
-        <v>SHIRLEI LISET </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMILA ISABEL")</f>
+        <v>CAMILA ISABEL</v>
       </c>
       <c r="E77" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AREVALO DIAZ")</f>
-        <v>AREVALO DIAZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUSTAMANTE VERA")</f>
+        <v>BUSTAMANTE VERA</v>
       </c>
       <c r="F77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1905873E7)</f>
-        <v>71905873</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1228799E7)</f>
+        <v>71228799</v>
       </c>
       <c r="G77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.02396153E8)</f>
-        <v>902396153</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.21741889E8)</f>
+        <v>921741889</v>
       </c>
       <c r="H77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Shirleyadiaz03@gmail.com")</f>
-        <v>Shirleyadiaz03@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isabelvera0624@gmail.com")</f>
+        <v>isabelvera0624@gmail.com</v>
       </c>
       <c r="I77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
-        <v>Comunicación Audiovisual y Cine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
+        <v>Diseño Gráfico Publicitario</v>
       </c>
       <c r="J77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
-        <v>Comunicaciones</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño")</f>
+        <v>Diseño</v>
       </c>
       <c r="K77" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
         <v>Antigua</v>
       </c>
       <c r="L77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
-        <v>Admisión Ordinaria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
+        <v>Admisión Extraordinaria (Traslados)</v>
       </c>
       <c r="M77" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
@@ -18745,8 +18598,8 @@
         <v>Diurno</v>
       </c>
       <c r="O77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
+        <v>TRASLADO CON CONVA</v>
       </c>
       <c r="P77" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
@@ -18761,12 +18614,12 @@
         <v>NINGUNO</v>
       </c>
       <c r="S77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEBASTIAN")</f>
-        <v>SEBASTIAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="T77" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45808.0)</f>
-        <v>45808</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45814.0)</f>
+        <v>45814</v>
       </c>
       <c r="U77" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
@@ -18785,33 +18638,30 @@
         <v>-</v>
       </c>
       <c r="Y77" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45808.0)</f>
-        <v>45808</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45814.0)</f>
+        <v>45814</v>
       </c>
       <c r="Z77" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AD77" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
-        <v>95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AE77" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
-        <v>1200</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
       </c>
       <c r="AF77" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
-        <v>1200</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
       </c>
       <c r="AG77" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -18826,60 +18676,57 @@
         <v>0</v>
       </c>
       <c r="AJ77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),583088.0)</f>
-        <v>583088</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),692459.0)</f>
+        <v>692459</v>
       </c>
       <c r="AK77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
-        <v>Más de 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
+        <v>10 kms a 15 kms</v>
       </c>
       <c r="AL77" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
         <v>01 Nacional</v>
       </c>
-      <c r="AM77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
-      </c>
+      <c r="AM77" s="1"/>
       <c r="AN77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
+        <v> </v>
       </c>
       <c r="AO77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2023.0)</f>
-        <v>2023</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2019.0)</f>
+        <v>2019</v>
       </c>
       <c r="AP77" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
-        <v>45778</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
       </c>
       <c r="AQ77" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
-        <v>45775</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
       </c>
       <c r="AR77" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45782.0)</f>
-        <v>45782</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45813.0)</f>
+        <v>45813</v>
       </c>
       <c r="AS77" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
-        <v>45778</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
       </c>
       <c r="AT77" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
-        <v>45775</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
       </c>
       <c r="AU77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
-        <v>26</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="AV77" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
         <v>DIGITAL</v>
       </c>
       <c r="AW77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
-        <v>BIDIRECCIONAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FORMULARIO")</f>
+        <v>FORMULARIO</v>
       </c>
       <c r="AX77" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEARCH MARCA")</f>
@@ -18890,16 +18737,16 @@
         <v>1</v>
       </c>
       <c r="AZ77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Andrea Araujo Antara")</f>
-        <v>Andrea Araujo Antara</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sergio Valderrama Rodriguez")</f>
+        <v>Sergio Valderrama Rodriguez</v>
       </c>
       <c r="BA77" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB77" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
-        <v>1200</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
       </c>
       <c r="BC77" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -18910,18 +18757,18 @@
         <v> -</v>
       </c>
       <c r="BE77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="BF77" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="BG77" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
-        <v>45815</v>
-      </c>
-      <c r="BH77" s="1"/>
+      <c r="BG77" s="1"/>
+      <c r="BH77" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No aplica")</f>
+        <v>No aplica</v>
+      </c>
       <c r="BI77" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
@@ -18937,56 +18784,56 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5244977.0)</f>
-        <v>5244977</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3137502.0)</f>
+        <v>3137502</v>
       </c>
       <c r="C78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000428174")</f>
-        <v>0000428174</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000138896")</f>
+        <v>0000138896</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMILA ISABEL")</f>
-        <v>CAMILA ISABEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS FERNANDO")</f>
+        <v>LUIS FERNANDO</v>
       </c>
       <c r="E78" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUSTAMANTE VERA")</f>
-        <v>BUSTAMANTE VERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANCHEZ GRANADOS")</f>
+        <v>SANCHEZ GRANADOS</v>
       </c>
       <c r="F78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1228799E7)</f>
-        <v>71228799</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3859255E7)</f>
+        <v>73859255</v>
       </c>
       <c r="G78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.21741889E8)</f>
-        <v>921741889</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.34433033E8)</f>
+        <v>934433033</v>
       </c>
       <c r="H78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isabelvera0624@gmail.com")</f>
-        <v>isabelvera0624@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"73859255@gmail.com")</f>
+        <v>73859255@gmail.com</v>
       </c>
       <c r="I78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
-        <v>Diseño Gráfico Publicitario</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Negocios Internacionales")</f>
+        <v>Administración y Negocios Internacionales</v>
       </c>
       <c r="J78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño")</f>
-        <v>Diseño</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Negocios")</f>
+        <v>Negocios</v>
       </c>
       <c r="K78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
-        <v>Antigua</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
+        <v>Nueva</v>
       </c>
       <c r="L78" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
         <v>Admisión Extraordinaria (Traslados)</v>
       </c>
       <c r="M78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
-        <v>Semi-presencial</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Virtual")</f>
+        <v>Virtual</v>
       </c>
       <c r="N78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
-        <v>Diurno</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nocturno - A distancia")</f>
+        <v>Nocturno - A distancia</v>
       </c>
       <c r="O78" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
@@ -19009,8 +18856,8 @@
         <v>-</v>
       </c>
       <c r="T78" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45814.0)</f>
-        <v>45814</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
+        <v>45815</v>
       </c>
       <c r="U78" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
@@ -19029,17 +18876,14 @@
         <v>-</v>
       </c>
       <c r="Y78" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45814.0)</f>
-        <v>45814</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
+        <v>45815</v>
       </c>
       <c r="Z78" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -19050,12 +18894,12 @@
         <v>0</v>
       </c>
       <c r="AE78" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
+        <v>750</v>
       </c>
       <c r="AF78" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
+        <v>750</v>
       </c>
       <c r="AG78" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -19070,16 +18914,16 @@
         <v>0</v>
       </c>
       <c r="AJ78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),692459.0)</f>
-        <v>692459</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1441310.0)</f>
+        <v>1441310</v>
       </c>
       <c r="AK78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
-        <v>10 kms a 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Menos de 5 kms")</f>
+        <v>Menos de 5 kms</v>
       </c>
       <c r="AL78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
-        <v>01 Nacional</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
+        <v>05 301 a 550</v>
       </c>
       <c r="AM78" s="1"/>
       <c r="AN78" s="1" t="str">
@@ -19087,8 +18931,8 @@
         <v> </v>
       </c>
       <c r="AO78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2019.0)</f>
-        <v>2019</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
+        <v>2024</v>
       </c>
       <c r="AP78" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
@@ -19099,8 +18943,8 @@
         <v>45803</v>
       </c>
       <c r="AR78" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45813.0)</f>
-        <v>45813</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45811.0)</f>
+        <v>45811</v>
       </c>
       <c r="AS78" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
@@ -19111,36 +18955,36 @@
         <v>45803</v>
       </c>
       <c r="AU78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
+        <v>4</v>
       </c>
       <c r="AV78" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
         <v>DIGITAL</v>
       </c>
       <c r="AW78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FORMULARIO")</f>
-        <v>FORMULARIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
+        <v>BIDIRECCIONAL</v>
       </c>
       <c r="AX78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEARCH MARCA")</f>
-        <v>SEARCH MARCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
+        <v>ORGANICO</v>
       </c>
       <c r="AY78" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sergio Valderrama Rodriguez")</f>
-        <v>Sergio Valderrama Rodriguez</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Andrea Araujo Antara")</f>
+        <v>Andrea Araujo Antara</v>
       </c>
       <c r="BA78" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB78" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
+        <v>750</v>
       </c>
       <c r="BC78" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -19178,36 +19022,36 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3137502.0)</f>
-        <v>3137502</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5247088.0)</f>
+        <v>5247088</v>
       </c>
       <c r="C79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000138896")</f>
-        <v>0000138896</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000428316")</f>
+        <v>0000428316</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS FERNANDO")</f>
-        <v>LUIS FERNANDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MAHEBA ALEXA")</f>
+        <v>MAHEBA ALEXA</v>
       </c>
       <c r="E79" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANCHEZ GRANADOS")</f>
-        <v>SANCHEZ GRANADOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MACAZANA MONTAÑEZ")</f>
+        <v>MACAZANA MONTAÑEZ</v>
       </c>
       <c r="F79" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3859255E7)</f>
-        <v>73859255</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.2852392E7)</f>
+        <v>62852392</v>
       </c>
       <c r="G79" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.34433033E8)</f>
-        <v>934433033</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.37403097E8)</f>
+        <v>937403097</v>
       </c>
       <c r="H79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"73859255@gmail.com")</f>
-        <v>73859255@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"XXGNTH@gmail.com")</f>
+        <v>XXGNTH@gmail.com</v>
       </c>
       <c r="I79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Negocios Internacionales")</f>
-        <v>Administración y Negocios Internacionales</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Marketing e Innovación")</f>
+        <v>Marketing e Innovación</v>
       </c>
       <c r="J79" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Negocios")</f>
@@ -19222,36 +19066,36 @@
         <v>Admisión Extraordinaria (Traslados)</v>
       </c>
       <c r="M79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Virtual")</f>
-        <v>Virtual</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
+        <v>Semi-presencial</v>
       </c>
       <c r="N79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nocturno - A distancia")</f>
-        <v>Nocturno - A distancia</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
+        <v>Diurno</v>
       </c>
       <c r="O79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
-        <v>TRASLADO CON CONVA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO SIN CONVA")</f>
+        <v>TRASLADO SIN CONVA</v>
       </c>
       <c r="P79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
-        <v>ESCALA REGULAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
+        <v>BECA</v>
       </c>
       <c r="Q79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
-        <v>NINGUNO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS NUEVAS")</f>
+        <v>BECA CARRERAS NUEVAS</v>
       </c>
       <c r="R79" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
         <v>NINGUNO</v>
       </c>
       <c r="S79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
+        <v>RODRIGO</v>
       </c>
       <c r="T79" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
-        <v>45815</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45817.0)</f>
+        <v>45817</v>
       </c>
       <c r="U79" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
@@ -19270,17 +19114,14 @@
         <v>-</v>
       </c>
       <c r="Y79" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
-        <v>45815</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45817.0)</f>
+        <v>45817</v>
       </c>
       <c r="Z79" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -19291,12 +19132,12 @@
         <v>0</v>
       </c>
       <c r="AE79" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
-        <v>750</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
       </c>
       <c r="AF79" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
-        <v>750</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
       </c>
       <c r="AG79" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -19311,25 +19152,28 @@
         <v>0</v>
       </c>
       <c r="AJ79" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1441310.0)</f>
-        <v>1441310</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1254358.0)</f>
+        <v>1254358</v>
       </c>
       <c r="AK79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Menos de 5 kms")</f>
-        <v>Menos de 5 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
+        <v>10 kms a 15 kms</v>
       </c>
       <c r="AL79" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
         <v>05 301 a 550</v>
       </c>
-      <c r="AM79" s="1"/>
+      <c r="AM79" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Universidad Privada del Norte(UPN)")</f>
+        <v>Universidad Privada del Norte(UPN)</v>
+      </c>
       <c r="AN79" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
         <v> </v>
       </c>
       <c r="AO79" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
-        <v>2024</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2022.0)</f>
+        <v>2022</v>
       </c>
       <c r="AP79" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
@@ -19340,8 +19184,8 @@
         <v>45803</v>
       </c>
       <c r="AR79" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45811.0)</f>
-        <v>45811</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45814.0)</f>
+        <v>45814</v>
       </c>
       <c r="AS79" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
@@ -19352,8 +19196,8 @@
         <v>45803</v>
       </c>
       <c r="AU79" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
-        <v>4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="AV79" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
@@ -19364,24 +19208,24 @@
         <v>BIDIRECCIONAL</v>
       </c>
       <c r="AX79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
-        <v>ORGANICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEARCH MARCA")</f>
+        <v>SEARCH MARCA</v>
       </c>
       <c r="AY79" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Andrea Araujo Antara")</f>
-        <v>Andrea Araujo Antara</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Angelica Iparraguirre")</f>
+        <v>Angelica Iparraguirre</v>
       </c>
       <c r="BA79" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB79" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
-        <v>750</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
       </c>
       <c r="BC79" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -19399,11 +19243,11 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="BG79" s="1"/>
-      <c r="BH79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No aplica")</f>
-        <v>No aplica</v>
-      </c>
+      <c r="BG79" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
+      <c r="BH79" s="1"/>
       <c r="BI79" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
@@ -19419,44 +19263,32 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5247088.0)</f>
-        <v>5247088</v>
-      </c>
-      <c r="C80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000428316")</f>
-        <v>0000428316</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3249231.0)</f>
+        <v>3249231</v>
+      </c>
+      <c r="C80" s="1"/>
       <c r="D80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MAHEBA ALEXA")</f>
-        <v>MAHEBA ALEXA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANTE ROMEO")</f>
+        <v>DANTE ROMEO</v>
       </c>
       <c r="E80" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MACAZANA MONTAÑEZ")</f>
-        <v>MACAZANA MONTAÑEZ</v>
-      </c>
-      <c r="F80" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.2852392E7)</f>
-        <v>62852392</v>
-      </c>
-      <c r="G80" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.37403097E8)</f>
-        <v>937403097</v>
-      </c>
-      <c r="H80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"XXGNTH@gmail.com")</f>
-        <v>XXGNTH@gmail.com</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLEZA RENDON")</f>
+        <v>BELLEZA RENDON</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
       <c r="I80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Marketing e Innovación")</f>
-        <v>Marketing e Innovación</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
+        <v>Diseño Gráfico Publicitario</v>
       </c>
       <c r="J80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Negocios")</f>
-        <v>Negocios</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño")</f>
+        <v>Diseño</v>
       </c>
       <c r="K80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
-        <v>Nueva</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
+        <v>Antigua</v>
       </c>
       <c r="L80" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
@@ -19479,20 +19311,20 @@
         <v>BECA</v>
       </c>
       <c r="Q80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS NUEVAS")</f>
-        <v>BECA CARRERAS NUEVAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
       </c>
       <c r="R80" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
         <v>NINGUNO</v>
       </c>
       <c r="S80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
-        <v>RODRIGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
+        <v>FABIOLA</v>
       </c>
       <c r="T80" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45817.0)</f>
-        <v>45817</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45820.0)</f>
+        <v>45820</v>
       </c>
       <c r="U80" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
@@ -19506,22 +19338,16 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="X80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
-      </c>
+      <c r="X80" s="1"/>
       <c r="Y80" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45817.0)</f>
-        <v>45817</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45820.0)</f>
+        <v>45820</v>
       </c>
       <c r="Z80" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -19532,12 +19358,12 @@
         <v>0</v>
       </c>
       <c r="AE80" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
+        <v>1250</v>
+      </c>
+      <c r="AF80" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
         <v>1050</v>
-      </c>
-      <c r="AF80" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
       </c>
       <c r="AG80" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -19551,30 +19377,21 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="AJ80" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1254358.0)</f>
-        <v>1254358</v>
-      </c>
+      <c r="AJ80" s="1"/>
       <c r="AK80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
-        <v>10 kms a 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
+        <v>Más de 15 kms</v>
       </c>
       <c r="AL80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
-        <v>05 301 a 550</v>
-      </c>
-      <c r="AM80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Universidad Privada del Norte(UPN)")</f>
-        <v>Universidad Privada del Norte(UPN)</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"03 101 a 200")</f>
+        <v>03 101 a 200</v>
+      </c>
+      <c r="AM80" s="1"/>
       <c r="AN80" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
         <v> </v>
       </c>
-      <c r="AO80" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2022.0)</f>
-        <v>2022</v>
-      </c>
+      <c r="AO80" s="1"/>
       <c r="AP80" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
         <v>45809</v>
@@ -19584,28 +19401,28 @@
         <v>45803</v>
       </c>
       <c r="AR80" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45814.0)</f>
-        <v>45814</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45796.0)</f>
+        <v>45796</v>
       </c>
       <c r="AS80" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
-        <v>45809</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
+        <v>45778</v>
       </c>
       <c r="AT80" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
-        <v>45803</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
+        <v>45775</v>
       </c>
       <c r="AU80" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
       </c>
       <c r="AV80" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
         <v>DIGITAL</v>
       </c>
       <c r="AW80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
-        <v>BIDIRECCIONAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FORMULARIO")</f>
+        <v>FORMULARIO</v>
       </c>
       <c r="AX80" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEARCH MARCA")</f>
@@ -19624,8 +19441,8 @@
         <v>1</v>
       </c>
       <c r="BB80" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
       </c>
       <c r="BC80" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -19643,7 +19460,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="BG80" s="1"/>
+      <c r="BG80" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH80" s="1"/>
       <c r="BI80" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -19655,138 +19475,438 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
-        <v/>
-      </c>
-      <c r="B81" s="1"/>
+      <c r="A81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5212489.0)</f>
+        <v>5212489</v>
+      </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="D81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GABRIEL FELIX ")</f>
+        <v>GABRIEL FELIX </v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARRIETA SANCHEZ")</f>
+        <v>ARRIETA SANCHEZ</v>
+      </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
+      <c r="I81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Psicología")</f>
+        <v>Psicología</v>
+      </c>
+      <c r="J81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Psicología")</f>
+        <v>Psicología</v>
+      </c>
+      <c r="K81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
+        <v>Nueva</v>
+      </c>
+      <c r="L81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
+        <v>Admisión Ordinaria</v>
+      </c>
+      <c r="M81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Presencial")</f>
+        <v>Presencial</v>
+      </c>
+      <c r="N81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
+        <v>Diurno</v>
+      </c>
+      <c r="O81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
+      <c r="P81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
+      </c>
+      <c r="Q81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
+      <c r="R81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
+      <c r="S81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
+        <v>FABIOLA</v>
+      </c>
+      <c r="T81" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45820.0)</f>
+        <v>45820</v>
+      </c>
+      <c r="U81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago Link")</f>
+        <v>Pago Link</v>
+      </c>
+      <c r="V81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
+      <c r="W81" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="X81" s="1"/>
-      <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
+      <c r="Y81" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45820.0)</f>
+        <v>45820</v>
+      </c>
+      <c r="Z81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
-      <c r="AF81" s="1"/>
-      <c r="AG81" s="1"/>
-      <c r="AH81" s="1"/>
-      <c r="AI81" s="1"/>
+      <c r="AC81" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
+      </c>
+      <c r="AD81" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
+      </c>
+      <c r="AE81" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
+      </c>
+      <c r="AF81" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
+      </c>
+      <c r="AG81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="AJ81" s="1"/>
-      <c r="AK81" s="1"/>
-      <c r="AL81" s="1"/>
+      <c r="AK81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5kms a 10 kms")</f>
+        <v>5kms a 10 kms</v>
+      </c>
+      <c r="AL81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"09 1,300 a 1,499")</f>
+        <v>09 1,300 a 1,499</v>
+      </c>
       <c r="AM81" s="1"/>
-      <c r="AN81" s="1"/>
+      <c r="AN81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
       <c r="AO81" s="1"/>
-      <c r="AP81" s="1"/>
-      <c r="AQ81" s="1"/>
-      <c r="AR81" s="1"/>
-      <c r="AS81" s="1"/>
-      <c r="AT81" s="1"/>
-      <c r="AU81" s="1"/>
-      <c r="AV81" s="1"/>
-      <c r="AW81" s="1"/>
-      <c r="AX81" s="1"/>
-      <c r="AY81" s="1"/>
-      <c r="AZ81" s="1"/>
-      <c r="BA81" s="1"/>
-      <c r="BB81" s="1"/>
-      <c r="BC81" s="1"/>
-      <c r="BD81" s="1"/>
-      <c r="BE81" s="1"/>
-      <c r="BF81" s="1"/>
-      <c r="BG81" s="1"/>
+      <c r="AP81" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AQ81" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AR81" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45812.0)</f>
+        <v>45812</v>
+      </c>
+      <c r="AS81" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AT81" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AU81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
+      </c>
+      <c r="AV81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
+        <v>TRADICIONAL</v>
+      </c>
+      <c r="AW81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VISITA")</f>
+        <v>VISITA</v>
+      </c>
+      <c r="AX81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VISITA")</f>
+        <v>VISITA</v>
+      </c>
+      <c r="AY81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fiorella Lanegra")</f>
+        <v>Fiorella Lanegra</v>
+      </c>
+      <c r="BA81" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB81" s="6">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
+      </c>
+      <c r="BC81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
+      <c r="BE81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG81" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH81" s="1"/>
-      <c r="BI81" s="1"/>
-      <c r="BJ81" s="1"/>
+      <c r="BI81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
-        <v/>
-      </c>
-      <c r="B82" s="1"/>
+      <c r="A82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4966378.0)</f>
+        <v>4966378</v>
+      </c>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="D82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOSUE MANUEL ")</f>
+        <v>JOSUE MANUEL </v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROJAS SOLIER")</f>
+        <v>ROJAS SOLIER</v>
+      </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
+      <c r="I82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Psicología")</f>
+        <v>Psicología</v>
+      </c>
+      <c r="J82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Psicología")</f>
+        <v>Psicología</v>
+      </c>
+      <c r="K82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
+        <v>Nueva</v>
+      </c>
+      <c r="L82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
+        <v>Admisión Extraordinaria (Traslados)</v>
+      </c>
+      <c r="M82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Presencial")</f>
+        <v>Presencial</v>
+      </c>
+      <c r="N82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
+        <v>Diurno</v>
+      </c>
+      <c r="O82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO SIN CONVA")</f>
+        <v>TRASLADO SIN CONVA</v>
+      </c>
+      <c r="P82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
+      </c>
+      <c r="Q82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
+      <c r="R82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
+      <c r="S82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
+        <v>FABIOLA</v>
+      </c>
+      <c r="T82" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45820.0)</f>
+        <v>45820</v>
+      </c>
+      <c r="U82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"POS")</f>
+        <v>POS</v>
+      </c>
+      <c r="V82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
+      <c r="W82" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="X82" s="1"/>
-      <c r="Y82" s="1"/>
-      <c r="Z82" s="1"/>
+      <c r="Y82" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45820.0)</f>
+        <v>45820</v>
+      </c>
+      <c r="Z82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
-      <c r="AD82" s="1"/>
-      <c r="AE82" s="1"/>
-      <c r="AF82" s="1"/>
-      <c r="AG82" s="1"/>
-      <c r="AH82" s="1"/>
-      <c r="AI82" s="1"/>
+      <c r="AC82" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
+      </c>
+      <c r="AD82" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
+      </c>
+      <c r="AE82" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
+      </c>
+      <c r="AF82" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
+      </c>
+      <c r="AG82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="AJ82" s="1"/>
-      <c r="AK82" s="1"/>
-      <c r="AL82" s="1"/>
+      <c r="AK82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5kms a 10 kms")</f>
+        <v>5kms a 10 kms</v>
+      </c>
+      <c r="AL82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"04 200 a 300")</f>
+        <v>04 200 a 300</v>
+      </c>
       <c r="AM82" s="1"/>
-      <c r="AN82" s="1"/>
+      <c r="AN82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
+        <v> </v>
+      </c>
       <c r="AO82" s="1"/>
-      <c r="AP82" s="1"/>
-      <c r="AQ82" s="1"/>
-      <c r="AR82" s="1"/>
-      <c r="AS82" s="1"/>
-      <c r="AT82" s="1"/>
-      <c r="AU82" s="1"/>
-      <c r="AV82" s="1"/>
-      <c r="AW82" s="1"/>
-      <c r="AX82" s="1"/>
-      <c r="AY82" s="1"/>
-      <c r="AZ82" s="1"/>
-      <c r="BA82" s="1"/>
-      <c r="BB82" s="1"/>
-      <c r="BC82" s="1"/>
-      <c r="BD82" s="1"/>
-      <c r="BE82" s="1"/>
-      <c r="BF82" s="1"/>
-      <c r="BG82" s="1"/>
+      <c r="AP82" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AQ82" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AR82" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45819.0)</f>
+        <v>45819</v>
+      </c>
+      <c r="AS82" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AT82" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AU82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
+        <v>TRADICIONAL</v>
+      </c>
+      <c r="AW82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VISITA")</f>
+        <v>VISITA</v>
+      </c>
+      <c r="AX82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VISITA")</f>
+        <v>VISITA</v>
+      </c>
+      <c r="AY82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fiorella Lanegra")</f>
+        <v>Fiorella Lanegra</v>
+      </c>
+      <c r="BA82" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB82" s="6">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
+      </c>
+      <c r="BC82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
+      <c r="BE82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG82" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH82" s="1"/>
-      <c r="BI82" s="1"/>
-      <c r="BJ82" s="1"/>
+      <c r="BI82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="str">

--- a/DATA_VENTA_25.2.xlsx
+++ b/DATA_VENTA_25.2.xlsx
@@ -762,8 +762,8 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="3">
@@ -1485,8 +1485,8 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="6">
@@ -1726,8 +1726,8 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="7">
@@ -1961,8 +1961,8 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="8">
@@ -2443,8 +2443,8 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="10">
@@ -2684,8 +2684,8 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="11">
@@ -3648,8 +3648,8 @@
         <v>0</v>
       </c>
       <c r="BJ14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="15">
@@ -3889,8 +3889,8 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="16">
@@ -4361,12 +4361,12 @@
         <v>No aplica</v>
       </c>
       <c r="BI17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BJ17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="18">
@@ -4602,12 +4602,12 @@
         <v>No aplica</v>
       </c>
       <c r="BI18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BJ18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="19">
@@ -4837,12 +4837,12 @@
         <v>No aplica</v>
       </c>
       <c r="BI19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BJ19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="20">
@@ -5551,12 +5551,12 @@
         <v>No aplica</v>
       </c>
       <c r="BI22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BJ22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="23">
@@ -5789,12 +5789,12 @@
         <v>No aplica</v>
       </c>
       <c r="BI23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BJ23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="24">
@@ -6034,8 +6034,8 @@
         <v>0</v>
       </c>
       <c r="BJ24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="25">
@@ -6503,12 +6503,12 @@
         <v>No aplica</v>
       </c>
       <c r="BI26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BJ26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="27">
@@ -6965,8 +6965,8 @@
         <v>1</v>
       </c>
       <c r="BD28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redacción")</f>
+        <v>Matemáticas y Redacción</v>
       </c>
       <c r="BE28" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7019,8 +7019,8 @@
         <v>61042423</v>
       </c>
       <c r="G29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.91050544E8)</f>
-        <v>991050544</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.82288834E8)</f>
+        <v>982288834</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"calmetluciana1@gmail.com")</f>
@@ -7209,8 +7209,8 @@
         <v>1</v>
       </c>
       <c r="BD29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redaccion")</f>
-        <v>Matemáticas y Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redacción")</f>
+        <v>Matemáticas y Redacción</v>
       </c>
       <c r="BE29" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7708,12 +7708,12 @@
         <v>No aplica</v>
       </c>
       <c r="BI31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BJ31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="32">
@@ -7932,8 +7932,8 @@
         <v>1</v>
       </c>
       <c r="BD32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redaccion")</f>
-        <v>Matemáticas y Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redacción")</f>
+        <v>Matemáticas y Redacción</v>
       </c>
       <c r="BE32" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -8420,8 +8420,8 @@
         <v>1</v>
       </c>
       <c r="BD34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redacción")</f>
+        <v>Matemáticas y Redacción</v>
       </c>
       <c r="BE34" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -8664,8 +8664,8 @@
         <v>1</v>
       </c>
       <c r="BD35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redacción")</f>
+        <v>Matemáticas y Redacción</v>
       </c>
       <c r="BE35" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -8902,8 +8902,8 @@
         <v>1</v>
       </c>
       <c r="BD36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redaccion")</f>
-        <v>Matemáticas y Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redacción")</f>
+        <v>Matemáticas y Redacción</v>
       </c>
       <c r="BE36" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -9404,12 +9404,12 @@
         <v>No aplica</v>
       </c>
       <c r="BI38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BJ38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="39">
@@ -9628,8 +9628,8 @@
         <v>1</v>
       </c>
       <c r="BD39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redaccion")</f>
-        <v>Matemáticas y Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redacción")</f>
+        <v>Matemáticas y Redacción</v>
       </c>
       <c r="BE39" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -9872,8 +9872,8 @@
         <v>1</v>
       </c>
       <c r="BD40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redaccion")</f>
-        <v>Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redacción")</f>
+        <v>Redacción</v>
       </c>
       <c r="BE40" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -10116,8 +10116,8 @@
         <v>1</v>
       </c>
       <c r="BD41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redaccion")</f>
-        <v>Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redacción")</f>
+        <v>Redacción</v>
       </c>
       <c r="BE41" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -10360,8 +10360,8 @@
         <v>1</v>
       </c>
       <c r="BD42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redaccion")</f>
-        <v>Matemáticas y Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redacción")</f>
+        <v>Matemáticas y Redacción</v>
       </c>
       <c r="BE42" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -10598,8 +10598,8 @@
         <v>1</v>
       </c>
       <c r="BD43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redaccion")</f>
-        <v>Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redacción")</f>
+        <v>Redacción</v>
       </c>
       <c r="BE43" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -10836,8 +10836,8 @@
         <v>1</v>
       </c>
       <c r="BD44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redacción")</f>
+        <v>Redacción</v>
       </c>
       <c r="BE44" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -11080,8 +11080,8 @@
         <v>1</v>
       </c>
       <c r="BD45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas")</f>
+        <v>Matemáticas</v>
       </c>
       <c r="BE45" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -11324,8 +11324,8 @@
         <v>1</v>
       </c>
       <c r="BD46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redaccion")</f>
-        <v>Matemáticas y Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redacción")</f>
+        <v>Matemáticas y Redacción</v>
       </c>
       <c r="BE46" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -11817,12 +11817,12 @@
         <v>No aplica</v>
       </c>
       <c r="BI48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BJ48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="49">
@@ -12282,8 +12282,8 @@
         <v>1</v>
       </c>
       <c r="BD50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redaccion")</f>
-        <v>Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redacción")</f>
+        <v>Redacción</v>
       </c>
       <c r="BE50" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -12526,8 +12526,8 @@
         <v>1</v>
       </c>
       <c r="BD51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redaccion")</f>
-        <v>Matemáticas y Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redacción")</f>
+        <v>Matemáticas y Redacción</v>
       </c>
       <c r="BE51" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -12764,8 +12764,8 @@
         <v>1</v>
       </c>
       <c r="BD52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redaccion")</f>
-        <v>Matemáticas y Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redacción")</f>
+        <v>Matemáticas y Redacción</v>
       </c>
       <c r="BE52" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -13008,8 +13008,8 @@
         <v>1</v>
       </c>
       <c r="BD53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redacción")</f>
+        <v>Matemáticas y Redacción</v>
       </c>
       <c r="BE53" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -13252,8 +13252,8 @@
         <v>1</v>
       </c>
       <c r="BD54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redaccion")</f>
-        <v>Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redacción")</f>
+        <v>Redacción</v>
       </c>
       <c r="BE54" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -13751,12 +13751,12 @@
         <v>No aplica</v>
       </c>
       <c r="BI56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BJ56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="57">
@@ -13975,8 +13975,8 @@
         <v>1</v>
       </c>
       <c r="BD57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redaccion")</f>
-        <v>Redaccion</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redacción")</f>
+        <v>Redacción</v>
       </c>
       <c r="BE57" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -14477,12 +14477,12 @@
         <v>No aplica</v>
       </c>
       <c r="BI59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BJ59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="60">
@@ -14699,8 +14699,8 @@
         <v> -</v>
       </c>
       <c r="BE60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF60" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -14947,12 +14947,12 @@
         <v>No aplica</v>
       </c>
       <c r="BI61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BJ61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="62">
@@ -15286,17 +15286,20 @@
         <v>PAGO FRACCIONADO</v>
       </c>
       <c r="W63" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475.0)</f>
-        <v>475</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="X63" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"12/06/2025")</f>
         <v>12/06/2025</v>
       </c>
-      <c r="Y63" s="1"/>
+      <c r="Y63" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45821.0)</f>
+        <v>45821</v>
+      </c>
       <c r="Z63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
       </c>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
@@ -15367,8 +15370,8 @@
         <v>45747</v>
       </c>
       <c r="AU63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
-        <v>23</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
+        <v>52</v>
       </c>
       <c r="AV63" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
@@ -15391,8 +15394,8 @@
         <v>Angelica Iparraguirre</v>
       </c>
       <c r="BA63" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.5)</f>
-        <v>0.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BB63" s="6">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),950.0)</f>
@@ -15407,8 +15410,8 @@
         <v> -</v>
       </c>
       <c r="BE63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF63" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -15638,8 +15641,8 @@
         <v>1</v>
       </c>
       <c r="BD64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redacción")</f>
+        <v>Matemáticas y Redacción</v>
       </c>
       <c r="BE64" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -15890,12 +15893,12 @@
         <v>No aplica</v>
       </c>
       <c r="BI65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BJ65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="66">
@@ -16128,12 +16131,12 @@
         <v>No aplica</v>
       </c>
       <c r="BI66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BJ66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="67">
@@ -16352,8 +16355,8 @@
         <v>1</v>
       </c>
       <c r="BD67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redacción")</f>
+        <v>Redacción</v>
       </c>
       <c r="BE67" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -16596,8 +16599,8 @@
         <v>1</v>
       </c>
       <c r="BD68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redacción")</f>
+        <v>Redacción</v>
       </c>
       <c r="BE68" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -16840,8 +16843,8 @@
         <v>1</v>
       </c>
       <c r="BD69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas")</f>
+        <v>Matemáticas</v>
       </c>
       <c r="BE69" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -17098,12 +17101,12 @@
         <v>No aplica</v>
       </c>
       <c r="BI70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BJ70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="71">
@@ -17340,8 +17343,8 @@
         <v>0</v>
       </c>
       <c r="BJ71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="72">
@@ -17557,8 +17560,8 @@
         <v>1</v>
       </c>
       <c r="BD72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Redacción")</f>
+        <v>Redacción</v>
       </c>
       <c r="BE72" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -17798,8 +17801,8 @@
         <v>1</v>
       </c>
       <c r="BD73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ninguno")</f>
+        <v>Ninguno</v>
       </c>
       <c r="BE73" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -18056,12 +18059,12 @@
         <v>No aplica</v>
       </c>
       <c r="BI74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BJ74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="75">
@@ -18281,8 +18284,8 @@
         <v> -</v>
       </c>
       <c r="BE75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF75" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -18748,17 +18751,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
         <v>850</v>
       </c>
-      <c r="BC77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
+      <c r="BC77" s="1"/>
       <c r="BD77" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
         <v> -</v>
       </c>
       <c r="BE77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF77" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -18774,8 +18774,8 @@
         <v>0</v>
       </c>
       <c r="BJ77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="78">
@@ -18808,8 +18808,8 @@
         <v>934433033</v>
       </c>
       <c r="H78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"73859255@gmail.com")</f>
-        <v>73859255@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"73859255@certus.edu.pe")</f>
+        <v>73859255@certus.edu.pe</v>
       </c>
       <c r="I78" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Negocios Internacionales")</f>
@@ -18986,17 +18986,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
         <v>750</v>
       </c>
-      <c r="BC78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
+      <c r="BC78" s="1"/>
       <c r="BD78" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
         <v> -</v>
       </c>
       <c r="BE78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF78" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -19012,8 +19009,8 @@
         <v>0</v>
       </c>
       <c r="BJ78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO")</f>
+        <v>TRASLADO</v>
       </c>
     </row>
     <row r="79">
@@ -19236,8 +19233,8 @@
         <v> -</v>
       </c>
       <c r="BE79" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF79" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -19266,7 +19263,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3249231.0)</f>
         <v>3249231</v>
       </c>
-      <c r="C80" s="1"/>
+      <c r="C80" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000428587")</f>
+        <v>0000428587</v>
+      </c>
       <c r="D80" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANTE ROMEO")</f>
         <v>DANTE ROMEO</v>
@@ -19275,9 +19275,18 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLEZA RENDON")</f>
         <v>BELLEZA RENDON</v>
       </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="F80" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1148646E7)</f>
+        <v>61148646</v>
+      </c>
+      <c r="G80" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.81378201E8)</f>
+        <v>981378201</v>
+      </c>
+      <c r="H80" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"zackarypos3@gmail.com")</f>
+        <v>zackarypos3@gmail.com</v>
+      </c>
       <c r="I80" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
         <v>Diseño Gráfico Publicitario</v>
@@ -19311,8 +19320,8 @@
         <v>BECA</v>
       </c>
       <c r="Q80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
-        <v>NINGUNO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE")</f>
+        <v>BECA CARRERAS CORE</v>
       </c>
       <c r="R80" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
@@ -19338,7 +19347,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="X80" s="1"/>
+      <c r="X80" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
       <c r="Y80" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45820.0)</f>
         <v>45820</v>
@@ -19377,7 +19389,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="AJ80" s="1"/>
+      <c r="AJ80" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),762104.0)</f>
+        <v>762104</v>
+      </c>
       <c r="AK80" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
         <v>Más de 15 kms</v>
@@ -19386,12 +19401,18 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"03 101 a 200")</f>
         <v>03 101 a 200</v>
       </c>
-      <c r="AM80" s="1"/>
+      <c r="AM80" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Universidad Peruana De Ciencias Aplicadas(UPC)")</f>
+        <v>Universidad Peruana De Ciencias Aplicadas(UPC)</v>
+      </c>
       <c r="AN80" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
         <v> </v>
       </c>
-      <c r="AO80" s="1"/>
+      <c r="AO80" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
+        <v>2024</v>
+      </c>
       <c r="AP80" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
         <v>45809</v>
@@ -19483,7 +19504,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5212489.0)</f>
         <v>5212489</v>
       </c>
-      <c r="C81" s="1"/>
+      <c r="C81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"2018007925")</f>
+        <v>2018007925</v>
+      </c>
       <c r="D81" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GABRIEL FELIX ")</f>
         <v>GABRIEL FELIX </v>
@@ -19492,9 +19516,18 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARRIETA SANCHEZ")</f>
         <v>ARRIETA SANCHEZ</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="F81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1163895E7)</f>
+        <v>71163895</v>
+      </c>
+      <c r="G81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.3389772E8)</f>
+        <v>933897720</v>
+      </c>
+      <c r="H81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"gaboluca08@gmail.com")</f>
+        <v>gaboluca08@gmail.com</v>
+      </c>
       <c r="I81" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Psicología")</f>
         <v>Psicología</v>
@@ -19555,7 +19588,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="X81" s="1"/>
+      <c r="X81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
       <c r="Y81" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45820.0)</f>
         <v>45820</v>
@@ -19594,7 +19630,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="AJ81" s="1"/>
+      <c r="AJ81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1268192.0)</f>
+        <v>1268192</v>
+      </c>
       <c r="AK81" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5kms a 10 kms")</f>
         <v>5kms a 10 kms</v>
@@ -19603,12 +19642,18 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"09 1,300 a 1,499")</f>
         <v>09 1,300 a 1,499</v>
       </c>
-      <c r="AM81" s="1"/>
+      <c r="AM81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
       <c r="AN81" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
         <v> -</v>
       </c>
-      <c r="AO81" s="1"/>
+      <c r="AO81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
+        <v>2024</v>
+      </c>
       <c r="AP81" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
         <v>45809</v>
@@ -19700,7 +19745,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4966378.0)</f>
         <v>4966378</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="C82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000428671")</f>
+        <v>0000428671</v>
+      </c>
       <c r="D82" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOSUE MANUEL ")</f>
         <v>JOSUE MANUEL </v>
@@ -19709,9 +19757,18 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROJAS SOLIER")</f>
         <v>ROJAS SOLIER</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="F82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.2977741E7)</f>
+        <v>72977741</v>
+      </c>
+      <c r="G82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.26241393E8)</f>
+        <v>926241393</v>
+      </c>
+      <c r="H82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rojassolierjosuemauel@gmail.com")</f>
+        <v>rojassolierjosuemauel@gmail.com</v>
+      </c>
       <c r="I82" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Psicología")</f>
         <v>Psicología</v>
@@ -19772,7 +19829,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="X82" s="1"/>
+      <c r="X82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
       <c r="Y82" s="2">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45820.0)</f>
         <v>45820</v>
@@ -19811,7 +19871,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="AJ82" s="1"/>
+      <c r="AJ82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1477132.0)</f>
+        <v>1477132</v>
+      </c>
       <c r="AK82" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5kms a 10 kms")</f>
         <v>5kms a 10 kms</v>
@@ -19820,12 +19883,18 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"04 200 a 300")</f>
         <v>04 200 a 300</v>
       </c>
-      <c r="AM82" s="1"/>
+      <c r="AM82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Universidad San Martin de Porres")</f>
+        <v>Universidad San Martin de Porres</v>
+      </c>
       <c r="AN82" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
         <v> </v>
       </c>
-      <c r="AO82" s="1"/>
+      <c r="AO82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2019.0)</f>
+        <v>2019</v>
+      </c>
       <c r="AP82" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
         <v>45809</v>
@@ -19909,272 +19978,959 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
-        <v/>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-      <c r="S83" s="1"/>
-      <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
-      <c r="W83" s="1"/>
-      <c r="X83" s="1"/>
+      <c r="A83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5255604.0)</f>
+        <v>5255604</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000428618")</f>
+        <v>0000428618</v>
+      </c>
+      <c r="D83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOSÉ ADIEL ")</f>
+        <v>JOSÉ ADIEL </v>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO LUDEÑA")</f>
+        <v>MATEO LUDEÑA</v>
+      </c>
+      <c r="F83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0551651E7)</f>
+        <v>60551651</v>
+      </c>
+      <c r="G83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.82396931E8)</f>
+        <v>982396931</v>
+      </c>
+      <c r="H83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"josemateoludena@gmail.com")</f>
+        <v>josemateoludena@gmail.com</v>
+      </c>
+      <c r="I83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura")</f>
+        <v>Arquitectura</v>
+      </c>
+      <c r="J83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
+        <v>Arquitecturas</v>
+      </c>
+      <c r="K83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
+        <v>Antigua</v>
+      </c>
+      <c r="L83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
+        <v>Admisión Extraordinaria (Traslados)</v>
+      </c>
+      <c r="M83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
+        <v>Semi-presencial</v>
+      </c>
+      <c r="N83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
+        <v>Diurno</v>
+      </c>
+      <c r="O83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO SIN CONVA")</f>
+        <v>TRASLADO SIN CONVA</v>
+      </c>
+      <c r="P83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
+        <v>BECA</v>
+      </c>
+      <c r="Q83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS NUEVAS-TRASLADOS SIN CONVA")</f>
+        <v>BECA CARRERAS NUEVAS-TRASLADOS SIN CONVA</v>
+      </c>
+      <c r="R83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
+      <c r="S83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
+        <v>FABIOLA</v>
+      </c>
+      <c r="T83" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45820.0)</f>
+        <v>45820</v>
+      </c>
+      <c r="U83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"POS")</f>
+        <v>POS</v>
+      </c>
+      <c r="V83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
+      </c>
+      <c r="W83" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),785.0)</f>
+        <v>785</v>
+      </c>
+      <c r="X83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"30/06/2025")</f>
+        <v>30/06/2025</v>
+      </c>
       <c r="Y83" s="1"/>
-      <c r="Z83" s="1"/>
+      <c r="Z83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
+      </c>
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
-      <c r="AE83" s="1"/>
-      <c r="AF83" s="1"/>
-      <c r="AG83" s="1"/>
-      <c r="AH83" s="1"/>
-      <c r="AI83" s="1"/>
-      <c r="AJ83" s="1"/>
-      <c r="AK83" s="1"/>
-      <c r="AL83" s="1"/>
-      <c r="AM83" s="1"/>
-      <c r="AN83" s="1"/>
-      <c r="AO83" s="1"/>
-      <c r="AP83" s="1"/>
-      <c r="AQ83" s="1"/>
-      <c r="AR83" s="1"/>
-      <c r="AS83" s="1"/>
-      <c r="AT83" s="1"/>
-      <c r="AU83" s="1"/>
-      <c r="AV83" s="1"/>
-      <c r="AW83" s="1"/>
-      <c r="AX83" s="1"/>
-      <c r="AY83" s="1"/>
-      <c r="AZ83" s="1"/>
-      <c r="BA83" s="1"/>
-      <c r="BB83" s="1"/>
-      <c r="BC83" s="1"/>
-      <c r="BD83" s="1"/>
-      <c r="BE83" s="1"/>
-      <c r="BF83" s="1"/>
+      <c r="AC83" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
+      </c>
+      <c r="AD83" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
+      </c>
+      <c r="AE83" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
+      </c>
+      <c r="AF83" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),950.0)</f>
+        <v>950</v>
+      </c>
+      <c r="AG83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),692434.0)</f>
+        <v>692434</v>
+      </c>
+      <c r="AK83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Menos de 5 kms")</f>
+        <v>Menos de 5 kms</v>
+      </c>
+      <c r="AL83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
+        <v>01 Nacional</v>
+      </c>
+      <c r="AM83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Universidad San Ignacio de Loyola - Usil")</f>
+        <v>Universidad San Ignacio de Loyola - Usil</v>
+      </c>
+      <c r="AN83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
+        <v> </v>
+      </c>
+      <c r="AO83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
+        <v>2024</v>
+      </c>
+      <c r="AP83" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AQ83" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AR83" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45819.0)</f>
+        <v>45819</v>
+      </c>
+      <c r="AS83" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AT83" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AU83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
+        <v>TRADICIONAL</v>
+      </c>
+      <c r="AW83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VISITA")</f>
+        <v>VISITA</v>
+      </c>
+      <c r="AX83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VISITA")</f>
+        <v>VISITA</v>
+      </c>
+      <c r="AY83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fiorella Lanegra")</f>
+        <v>Fiorella Lanegra</v>
+      </c>
+      <c r="BA83" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.2764976958525346)</f>
+        <v>0.2764976959</v>
+      </c>
+      <c r="BB83" s="6">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),950.0)</f>
+        <v>950</v>
+      </c>
+      <c r="BC83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
+      <c r="BE83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="BG83" s="1"/>
       <c r="BH83" s="1"/>
-      <c r="BI83" s="1"/>
-      <c r="BJ83" s="1"/>
+      <c r="BI83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
-        <v/>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-      <c r="S84" s="1"/>
-      <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
-      <c r="V84" s="1"/>
-      <c r="W84" s="1"/>
-      <c r="X84" s="1"/>
-      <c r="Y84" s="1"/>
-      <c r="Z84" s="1"/>
+      <c r="A84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),655118.0)</f>
+        <v>655118</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000046213")</f>
+        <v>0000046213</v>
+      </c>
+      <c r="D84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANDREA DE LOS ANGELES")</f>
+        <v>ANDREA DE LOS ANGELES</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NAVARRO RODRIGUEZ")</f>
+        <v>NAVARRO RODRIGUEZ</v>
+      </c>
+      <c r="F84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.6397304E7)</f>
+        <v>76397304</v>
+      </c>
+      <c r="G84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.12168501E8)</f>
+        <v>912168501</v>
+      </c>
+      <c r="H84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"angelesandrea.nr@gmail.com")</f>
+        <v>angelesandrea.nr@gmail.com</v>
+      </c>
+      <c r="I84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Marketing")</f>
+        <v>Administración y Marketing</v>
+      </c>
+      <c r="J84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Negocios")</f>
+        <v>Negocios</v>
+      </c>
+      <c r="K84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
+        <v>Nueva</v>
+      </c>
+      <c r="L84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
+        <v>Admisión de Alto Rendimiento</v>
+      </c>
+      <c r="M84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Virtual")</f>
+        <v>Virtual</v>
+      </c>
+      <c r="N84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nocturno - A distancia")</f>
+        <v>Nocturno - A distancia</v>
+      </c>
+      <c r="O84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
+      <c r="P84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
+      </c>
+      <c r="Q84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
+      <c r="R84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
+      <c r="S84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="T84" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45821.0)</f>
+        <v>45821</v>
+      </c>
+      <c r="U84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
+        <v>CARGO</v>
+      </c>
+      <c r="V84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
+      <c r="W84" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="X84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Y84" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45821.0)</f>
+        <v>45821</v>
+      </c>
+      <c r="Z84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
-      <c r="AD84" s="1"/>
-      <c r="AE84" s="1"/>
-      <c r="AF84" s="1"/>
-      <c r="AG84" s="1"/>
-      <c r="AH84" s="1"/>
-      <c r="AI84" s="1"/>
-      <c r="AJ84" s="1"/>
-      <c r="AK84" s="1"/>
-      <c r="AL84" s="1"/>
-      <c r="AM84" s="1"/>
-      <c r="AN84" s="1"/>
-      <c r="AO84" s="1"/>
-      <c r="AP84" s="1"/>
-      <c r="AQ84" s="1"/>
-      <c r="AR84" s="1"/>
-      <c r="AS84" s="1"/>
-      <c r="AT84" s="1"/>
-      <c r="AU84" s="1"/>
-      <c r="AV84" s="1"/>
-      <c r="AW84" s="1"/>
-      <c r="AX84" s="1"/>
-      <c r="AY84" s="1"/>
-      <c r="AZ84" s="1"/>
-      <c r="BA84" s="1"/>
-      <c r="BB84" s="1"/>
-      <c r="BC84" s="1"/>
-      <c r="BD84" s="1"/>
-      <c r="BE84" s="1"/>
-      <c r="BF84" s="1"/>
-      <c r="BG84" s="1"/>
+      <c r="AC84" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD84" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE84" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
+        <v>750</v>
+      </c>
+      <c r="AF84" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
+        <v>750</v>
+      </c>
+      <c r="AG84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1411438.0)</f>
+        <v>1411438</v>
+      </c>
+      <c r="AK84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
+        <v>10 kms a 15 kms</v>
+      </c>
+      <c r="AL84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
+        <v>01 Nacional</v>
+      </c>
+      <c r="AM84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="AN84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
+      <c r="AO84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2014.0)</f>
+        <v>2014</v>
+      </c>
+      <c r="AP84" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AQ84" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AR84" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45816.0)</f>
+        <v>45816</v>
+      </c>
+      <c r="AS84" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AT84" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AU84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
+        <v>5</v>
+      </c>
+      <c r="AV84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
+        <v>DIGITAL</v>
+      </c>
+      <c r="AW84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FORMULARIO")</f>
+        <v>FORMULARIO</v>
+      </c>
+      <c r="AX84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
+        <v>ORGANICO</v>
+      </c>
+      <c r="AY84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Andrea Araujo Antara")</f>
+        <v>Andrea Araujo Antara</v>
+      </c>
+      <c r="BA84" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB84" s="6">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
+        <v>750</v>
+      </c>
+      <c r="BC84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
+      <c r="BE84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG84" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH84" s="1"/>
-      <c r="BI84" s="1"/>
-      <c r="BJ84" s="1"/>
+      <c r="BI84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
-        <v/>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
-      <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
-      <c r="Z85" s="1"/>
+      <c r="A85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5259374.0)</f>
+        <v>5259374</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000428895")</f>
+        <v>0000428895</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOSE PABLO")</f>
+        <v>JOSE PABLO</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGUILAR JOVE")</f>
+        <v>AGUILAR JOVE</v>
+      </c>
+      <c r="F85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.661458E7)</f>
+        <v>76614580</v>
+      </c>
+      <c r="G85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.12982349E8)</f>
+        <v>912982349</v>
+      </c>
+      <c r="H85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"josepabloaguilarjove@gmail.com")</f>
+        <v>josepabloaguilarjove@gmail.com</v>
+      </c>
+      <c r="I85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
+        <v>Comunicación Audiovisual y Cine</v>
+      </c>
+      <c r="J85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
+        <v>Comunicaciones</v>
+      </c>
+      <c r="K85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
+        <v>Antigua</v>
+      </c>
+      <c r="L85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
+        <v>Admisión Extraordinaria (Traslados)</v>
+      </c>
+      <c r="M85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
+        <v>Semi-presencial</v>
+      </c>
+      <c r="N85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
+        <v>Diurno</v>
+      </c>
+      <c r="O85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO SIN CONVA")</f>
+        <v>TRASLADO SIN CONVA</v>
+      </c>
+      <c r="P85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
+      </c>
+      <c r="Q85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
+      <c r="R85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
+      <c r="S85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="T85" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45824.0)</f>
+        <v>45824</v>
+      </c>
+      <c r="U85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
+        <v>CARGO</v>
+      </c>
+      <c r="V85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
+      <c r="W85" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="X85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Y85" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45824.0)</f>
+        <v>45824</v>
+      </c>
+      <c r="Z85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
-      <c r="AE85" s="1"/>
-      <c r="AF85" s="1"/>
-      <c r="AG85" s="1"/>
-      <c r="AH85" s="1"/>
-      <c r="AI85" s="1"/>
-      <c r="AJ85" s="1"/>
-      <c r="AK85" s="1"/>
-      <c r="AL85" s="1"/>
-      <c r="AM85" s="1"/>
-      <c r="AN85" s="1"/>
-      <c r="AO85" s="1"/>
-      <c r="AP85" s="1"/>
-      <c r="AQ85" s="1"/>
-      <c r="AR85" s="1"/>
-      <c r="AS85" s="1"/>
-      <c r="AT85" s="1"/>
-      <c r="AU85" s="1"/>
-      <c r="AV85" s="1"/>
-      <c r="AW85" s="1"/>
-      <c r="AX85" s="1"/>
-      <c r="AY85" s="1"/>
-      <c r="AZ85" s="1"/>
-      <c r="BA85" s="1"/>
-      <c r="BB85" s="1"/>
-      <c r="BC85" s="1"/>
-      <c r="BD85" s="1"/>
-      <c r="BE85" s="1"/>
-      <c r="BF85" s="1"/>
-      <c r="BG85" s="1"/>
+      <c r="AC85" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD85" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE85" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
+      </c>
+      <c r="AF85" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
+      </c>
+      <c r="AG85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1651439.0)</f>
+        <v>1651439</v>
+      </c>
+      <c r="AK85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
+        <v>Más de 15 kms</v>
+      </c>
+      <c r="AL85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"06 551 a 800")</f>
+        <v>06 551 a 800</v>
+      </c>
+      <c r="AM85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Universidad Jaime Bausate y Meza")</f>
+        <v>Universidad Jaime Bausate y Meza</v>
+      </c>
+      <c r="AN85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
+        <v> </v>
+      </c>
+      <c r="AO85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2021.0)</f>
+        <v>2021</v>
+      </c>
+      <c r="AP85" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AQ85" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AR85" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45821.0)</f>
+        <v>45821</v>
+      </c>
+      <c r="AS85" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AT85" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AU85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="AV85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
+        <v>DIGITAL</v>
+      </c>
+      <c r="AW85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FORMULARIO")</f>
+        <v>FORMULARIO</v>
+      </c>
+      <c r="AX85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEARCH MARCA")</f>
+        <v>SEARCH MARCA</v>
+      </c>
+      <c r="AY85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Andrea Araujo Antara")</f>
+        <v>Andrea Araujo Antara</v>
+      </c>
+      <c r="BA85" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB85" s="6">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
+      </c>
+      <c r="BC85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
+      <c r="BE85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG85" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH85" s="1"/>
-      <c r="BI85" s="1"/>
-      <c r="BJ85" s="1"/>
+      <c r="BI85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
-        <v/>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
+      <c r="A86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5247398.0)</f>
+        <v>5247398</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000428364")</f>
+        <v>0000428364</v>
+      </c>
+      <c r="D86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DARIANA YARI")</f>
+        <v>DARIANA YARI</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIOSES PURIZACA")</f>
+        <v>DIOSES PURIZACA</v>
+      </c>
+      <c r="F86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1323781E7)</f>
+        <v>61323781</v>
+      </c>
+      <c r="G86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.40492517E8)</f>
+        <v>940492517</v>
+      </c>
+      <c r="H86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"yaridioses17@gmail.com")</f>
+        <v>yaridioses17@gmail.com</v>
+      </c>
+      <c r="I86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
+        <v>Comunicación Audiovisual y Cine</v>
+      </c>
+      <c r="J86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
+        <v>Comunicaciones</v>
+      </c>
+      <c r="K86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
+        <v>Antigua</v>
+      </c>
+      <c r="L86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
+        <v>Admisión de Alto Rendimiento</v>
+      </c>
+      <c r="M86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
+        <v>Semi-presencial</v>
+      </c>
+      <c r="N86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
+        <v>Diurno</v>
+      </c>
+      <c r="O86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
+      <c r="P86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
+        <v>BECA</v>
+      </c>
+      <c r="Q86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE")</f>
+        <v>BECA CARRERAS CORE</v>
+      </c>
+      <c r="R86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
       <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-      <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
-      <c r="Y86" s="1"/>
-      <c r="Z86" s="1"/>
+      <c r="T86" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45824.0)</f>
+        <v>45824</v>
+      </c>
+      <c r="U86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
+        <v>CARGO</v>
+      </c>
+      <c r="V86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
+      <c r="W86" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="X86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Y86" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45824.0)</f>
+        <v>45824</v>
+      </c>
+      <c r="Z86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
-      <c r="AD86" s="1"/>
-      <c r="AE86" s="1"/>
-      <c r="AF86" s="1"/>
-      <c r="AG86" s="1"/>
-      <c r="AH86" s="1"/>
-      <c r="AI86" s="1"/>
-      <c r="AJ86" s="1"/>
-      <c r="AK86" s="1"/>
-      <c r="AL86" s="1"/>
-      <c r="AM86" s="1"/>
-      <c r="AN86" s="1"/>
-      <c r="AO86" s="1"/>
-      <c r="AP86" s="1"/>
-      <c r="AQ86" s="1"/>
-      <c r="AR86" s="1"/>
-      <c r="AS86" s="1"/>
-      <c r="AT86" s="1"/>
-      <c r="AU86" s="1"/>
-      <c r="AV86" s="1"/>
-      <c r="AW86" s="1"/>
-      <c r="AX86" s="1"/>
-      <c r="AY86" s="1"/>
-      <c r="AZ86" s="1"/>
-      <c r="BA86" s="1"/>
-      <c r="BB86" s="1"/>
-      <c r="BC86" s="1"/>
-      <c r="BD86" s="1"/>
-      <c r="BE86" s="1"/>
-      <c r="BF86" s="1"/>
-      <c r="BG86" s="1"/>
+      <c r="AC86" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
+      </c>
+      <c r="AD86" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
+      </c>
+      <c r="AE86" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
+        <v>1350</v>
+      </c>
+      <c r="AF86" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1150.0)</f>
+        <v>1150</v>
+      </c>
+      <c r="AG86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1739564.0)</f>
+        <v>1739564</v>
+      </c>
+      <c r="AK86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
+        <v>Más de 15 kms</v>
+      </c>
+      <c r="AL86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"04 200 a 300")</f>
+        <v>04 200 a 300</v>
+      </c>
+      <c r="AM86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="AN86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
+      <c r="AO86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2024.0)</f>
+        <v>2024</v>
+      </c>
+      <c r="AP86" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AQ86" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AR86" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45814.0)</f>
+        <v>45814</v>
+      </c>
+      <c r="AS86" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AT86" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AU86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
+        <v>10</v>
+      </c>
+      <c r="AV86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
+      </c>
+      <c r="AW86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
+      </c>
+      <c r="AX86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
+      </c>
+      <c r="AY86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Angelica Iparraguirre")</f>
+        <v>Angelica Iparraguirre</v>
+      </c>
+      <c r="BA86" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB86" s="6">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1150.0)</f>
+        <v>1150</v>
+      </c>
+      <c r="BC86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
+      <c r="BE86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG86" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH86" s="1"/>
-      <c r="BI86" s="1"/>
-      <c r="BJ86" s="1"/>
+      <c r="BI86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="str">

--- a/DATA_VENTA_25.2.xlsx
+++ b/DATA_VENTA_25.2.xlsx
@@ -14706,7 +14706,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="BG60" s="1"/>
+      <c r="BG60" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH60" s="1"/>
       <c r="BI60" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -19603,8 +19606,8 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
       <c r="AC81" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
       </c>
       <c r="AD81" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
@@ -20767,7 +20770,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
         <v>NINGUNO</v>
       </c>
-      <c r="S86" s="1"/>
+      <c r="S86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
       <c r="T86" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45824.0)</f>
         <v>45824</v>
@@ -20933,52 +20939,139 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
-        <v/>
-      </c>
-      <c r="B87" s="1"/>
+      <c r="A87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),86.0)</f>
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),429020.0)</f>
+        <v>429020</v>
+      </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="D87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YARETZI")</f>
+        <v>YARETZI</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"QUINTANA WICHE")</f>
+        <v>QUINTANA WICHE</v>
+      </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="W87" s="1"/>
+      <c r="I87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
+        <v>Comunicación Audiovisual y Cine</v>
+      </c>
+      <c r="J87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
+        <v>Comunicaciones</v>
+      </c>
+      <c r="K87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
+        <v>Antigua</v>
+      </c>
+      <c r="L87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
+        <v>Admisión Extraordinaria (Traslados)</v>
+      </c>
+      <c r="M87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
+        <v>Semi-presencial</v>
+      </c>
+      <c r="N87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
+        <v>Diurno</v>
+      </c>
+      <c r="O87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO SIN CONVA")</f>
+        <v>TRASLADO SIN CONVA</v>
+      </c>
+      <c r="P87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
+      </c>
+      <c r="Q87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
+      <c r="R87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Visita Guiada")</f>
+        <v>Visita Guiada</v>
+      </c>
+      <c r="S87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
+        <v>RODRIGO</v>
+      </c>
+      <c r="T87" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45825.0)</f>
+        <v>45825</v>
+      </c>
+      <c r="U87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago Link")</f>
+        <v>Pago Link</v>
+      </c>
+      <c r="V87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
+      </c>
+      <c r="W87" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),700.0)</f>
+        <v>700</v>
+      </c>
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
-      <c r="Z87" s="1"/>
+      <c r="Z87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
+      </c>
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-      <c r="AE87" s="1"/>
-      <c r="AF87" s="1"/>
-      <c r="AG87" s="1"/>
-      <c r="AH87" s="1"/>
-      <c r="AI87" s="1"/>
+      <c r="AC87" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD87" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE87" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
+      </c>
+      <c r="AF87" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
+      </c>
+      <c r="AG87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="AJ87" s="1"/>
       <c r="AK87" s="1"/>
       <c r="AL87" s="1"/>
       <c r="AM87" s="1"/>
-      <c r="AN87" s="1"/>
+      <c r="AN87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," ")</f>
+        <v> </v>
+      </c>
       <c r="AO87" s="1"/>
-      <c r="AP87" s="1"/>
-      <c r="AQ87" s="1"/>
+      <c r="AP87" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AQ87" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
       <c r="AR87" s="1"/>
       <c r="AS87" s="1"/>
       <c r="AT87" s="1"/>
@@ -20986,85 +21079,271 @@
       <c r="AV87" s="1"/>
       <c r="AW87" s="1"/>
       <c r="AX87" s="1"/>
-      <c r="AY87" s="1"/>
-      <c r="AZ87" s="1"/>
-      <c r="BA87" s="1"/>
-      <c r="BB87" s="1"/>
-      <c r="BC87" s="1"/>
-      <c r="BD87" s="1"/>
-      <c r="BE87" s="1"/>
-      <c r="BF87" s="1"/>
-      <c r="BG87" s="1"/>
+      <c r="AY87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Juan Manuel Rodríguez")</f>
+        <v>Juan Manuel Rodríguez</v>
+      </c>
+      <c r="BA87" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BB87" s="6">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1480.0)</f>
+        <v>1480</v>
+      </c>
+      <c r="BC87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
+      <c r="BE87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG87" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH87" s="1"/>
-      <c r="BI87" s="1"/>
-      <c r="BJ87" s="1"/>
+      <c r="BI87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
-        <v/>
-      </c>
-      <c r="B88" s="1"/>
+      <c r="A88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),87.0)</f>
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5086478.0)</f>
+        <v>5086478</v>
+      </c>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="D88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAIME RAY ")</f>
+        <v>JAIME RAY </v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANCHEZ CHAVEZ")</f>
+        <v>SANCHEZ CHAVEZ</v>
+      </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="1"/>
-      <c r="X88" s="1"/>
-      <c r="Y88" s="1"/>
-      <c r="Z88" s="1"/>
+      <c r="I88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
+        <v>Comunicación Audiovisual y Cine</v>
+      </c>
+      <c r="J88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
+        <v>Comunicaciones</v>
+      </c>
+      <c r="K88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
+        <v>Antigua</v>
+      </c>
+      <c r="L88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
+        <v>Admisión Ordinaria</v>
+      </c>
+      <c r="M88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
+        <v>Semi-presencial</v>
+      </c>
+      <c r="N88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
+        <v>Diurno</v>
+      </c>
+      <c r="O88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
+      <c r="P88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECA-BECA")</f>
+        <v>RECA-BECA</v>
+      </c>
+      <c r="Q88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
+      <c r="R88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Visita Guiada")</f>
+        <v>Visita Guiada</v>
+      </c>
+      <c r="S88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
+        <v>RODRIGO</v>
+      </c>
+      <c r="T88" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45825.0)</f>
+        <v>45825</v>
+      </c>
+      <c r="U88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
+        <v>CARGO</v>
+      </c>
+      <c r="V88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
+      <c r="W88" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="X88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Y88" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45825.0)</f>
+        <v>45825</v>
+      </c>
+      <c r="Z88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-      <c r="AE88" s="1"/>
-      <c r="AF88" s="1"/>
-      <c r="AG88" s="1"/>
-      <c r="AH88" s="1"/>
-      <c r="AI88" s="1"/>
+      <c r="AC88" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
+      </c>
+      <c r="AD88" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
+      </c>
+      <c r="AE88" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
+        <v>1200</v>
+      </c>
+      <c r="AF88" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
+      </c>
+      <c r="AG88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="AJ88" s="1"/>
-      <c r="AK88" s="1"/>
-      <c r="AL88" s="1"/>
+      <c r="AK88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
+        <v>Más de 15 kms</v>
+      </c>
+      <c r="AL88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
+        <v>05 301 a 550</v>
+      </c>
       <c r="AM88" s="1"/>
-      <c r="AN88" s="1"/>
+      <c r="AN88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
       <c r="AO88" s="1"/>
-      <c r="AP88" s="1"/>
-      <c r="AQ88" s="1"/>
-      <c r="AR88" s="1"/>
-      <c r="AS88" s="1"/>
-      <c r="AT88" s="1"/>
-      <c r="AU88" s="1"/>
-      <c r="AV88" s="1"/>
-      <c r="AW88" s="1"/>
-      <c r="AX88" s="1"/>
-      <c r="AY88" s="1"/>
-      <c r="AZ88" s="1"/>
-      <c r="BA88" s="1"/>
-      <c r="BB88" s="1"/>
-      <c r="BC88" s="1"/>
-      <c r="BD88" s="1"/>
-      <c r="BE88" s="1"/>
-      <c r="BF88" s="1"/>
-      <c r="BG88" s="1"/>
+      <c r="AP88" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AQ88" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AR88" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45808.0)</f>
+        <v>45808</v>
+      </c>
+      <c r="AS88" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
+        <v>45778</v>
+      </c>
+      <c r="AT88" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
+        <v>45775</v>
+      </c>
+      <c r="AU88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
+        <v>17</v>
+      </c>
+      <c r="AV88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
+        <v>TRADICIONAL</v>
+      </c>
+      <c r="AW88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VISITA")</f>
+        <v>VISITA</v>
+      </c>
+      <c r="AX88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VISITA")</f>
+        <v>VISITA</v>
+      </c>
+      <c r="AY88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fiorella Lanegra")</f>
+        <v>Fiorella Lanegra</v>
+      </c>
+      <c r="BA88" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB88" s="6">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
+      </c>
+      <c r="BC88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
+      <c r="BE88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG88" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH88" s="1"/>
-      <c r="BI88" s="1"/>
-      <c r="BJ88" s="1"/>
+      <c r="BI88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="str">

--- a/DATA_VENTA_25.2.xlsx
+++ b/DATA_VENTA_25.2.xlsx
@@ -19477,8 +19477,8 @@
         <v> -</v>
       </c>
       <c r="BE80" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF80" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -19718,8 +19718,8 @@
         <v> -</v>
       </c>
       <c r="BE81" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF81" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -19769,8 +19769,8 @@
         <v>926241393</v>
       </c>
       <c r="H82" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rojassolierjosuemauel@gmail.com")</f>
-        <v>rojassolierjosuemauel@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rojassolierjosuemanuel@gmail.com")</f>
+        <v>rojassolierjosuemanuel@gmail.com</v>
       </c>
       <c r="I82" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Psicología")</f>
@@ -20435,8 +20435,8 @@
         <v> -</v>
       </c>
       <c r="BE84" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF84" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -20676,8 +20676,8 @@
         <v> -</v>
       </c>
       <c r="BE85" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF85" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -20917,8 +20917,8 @@
         <v> -</v>
       </c>
       <c r="BE86" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF86" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -21346,71 +21346,221 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
-        <v/>
-      </c>
-      <c r="B89" s="1"/>
+      <c r="A89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1180892.0)</f>
+        <v>1180892</v>
+      </c>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="D89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MAURICIO DANIEL ")</f>
+        <v>MAURICIO DANIEL </v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOUSA BORBOR")</f>
+        <v>SOUSA BORBOR</v>
+      </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="X89" s="1"/>
-      <c r="Y89" s="1"/>
-      <c r="Z89" s="1"/>
+      <c r="I89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura de Interiores")</f>
+        <v>Arquitectura de Interiores</v>
+      </c>
+      <c r="J89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
+        <v>Arquitecturas</v>
+      </c>
+      <c r="K89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
+        <v>Antigua</v>
+      </c>
+      <c r="L89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
+        <v>Admisión de Alto Rendimiento</v>
+      </c>
+      <c r="M89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
+        <v>Semi-presencial</v>
+      </c>
+      <c r="N89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
+        <v>Diurno</v>
+      </c>
+      <c r="O89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
+      <c r="P89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
+        <v>BECA</v>
+      </c>
+      <c r="Q89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE")</f>
+        <v>BECA CARRERAS CORE</v>
+      </c>
+      <c r="R89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
+      <c r="S89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
+        <v>RODRIGO</v>
+      </c>
+      <c r="T89" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45826.0)</f>
+        <v>45826</v>
+      </c>
+      <c r="U89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
+        <v>CARGO</v>
+      </c>
+      <c r="V89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
+      <c r="W89" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="X89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Y89" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45826.0)</f>
+        <v>45826</v>
+      </c>
+      <c r="Z89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
-      <c r="AD89" s="1"/>
-      <c r="AE89" s="1"/>
-      <c r="AF89" s="1"/>
-      <c r="AG89" s="1"/>
-      <c r="AH89" s="1"/>
-      <c r="AI89" s="1"/>
+      <c r="AC89" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
+      </c>
+      <c r="AD89" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
+      </c>
+      <c r="AE89" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
+        <v>1200</v>
+      </c>
+      <c r="AF89" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
+      </c>
+      <c r="AG89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="AJ89" s="1"/>
-      <c r="AK89" s="1"/>
-      <c r="AL89" s="1"/>
+      <c r="AK89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
+        <v>Más de 15 kms</v>
+      </c>
+      <c r="AL89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"03 101 a 200")</f>
+        <v>03 101 a 200</v>
+      </c>
       <c r="AM89" s="1"/>
-      <c r="AN89" s="1"/>
+      <c r="AN89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
       <c r="AO89" s="1"/>
-      <c r="AP89" s="1"/>
-      <c r="AQ89" s="1"/>
-      <c r="AR89" s="1"/>
-      <c r="AS89" s="1"/>
-      <c r="AT89" s="1"/>
-      <c r="AU89" s="1"/>
-      <c r="AV89" s="1"/>
-      <c r="AW89" s="1"/>
-      <c r="AX89" s="1"/>
-      <c r="AY89" s="1"/>
-      <c r="AZ89" s="1"/>
-      <c r="BA89" s="1"/>
-      <c r="BB89" s="1"/>
-      <c r="BC89" s="1"/>
-      <c r="BD89" s="1"/>
-      <c r="BE89" s="1"/>
-      <c r="BF89" s="1"/>
+      <c r="AP89" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AQ89" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AR89" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45823.0)</f>
+        <v>45823</v>
+      </c>
+      <c r="AS89" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AT89" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AU89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="AV89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
+        <v>DIGITAL</v>
+      </c>
+      <c r="AW89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FORMULARIO")</f>
+        <v>FORMULARIO</v>
+      </c>
+      <c r="AX89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
+        <v>ORGANICO</v>
+      </c>
+      <c r="AY89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Rosa Ugarte")</f>
+        <v>Rosa Ugarte</v>
+      </c>
+      <c r="BA89" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB89" s="6">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
+      </c>
+      <c r="BC89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
+      <c r="BE89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="BG89" s="1"/>
       <c r="BH89" s="1"/>
-      <c r="BI89" s="1"/>
-      <c r="BJ89" s="1"/>
+      <c r="BI89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="str">
